--- a/Cleaned_Data_Ummi-khulthum.xlsx
+++ b/Cleaned_Data_Ummi-khulthum.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8795"/>
+    <workbookView windowWidth="22188" windowHeight="8795" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="RAW DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DATA CLEANED" sheetId="1" r:id="rId1"/>
+    <sheet name="1ST METHOD TXT FILE" sheetId="2" r:id="rId2"/>
+    <sheet name="2ND METHOD TXT FILE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1220">
   <si>
     <t>Year</t>
   </si>
@@ -3365,22 +3365,363 @@
   </si>
   <si>
     <t>Reggae, Gangsta, Soul, Conscious</t>
+  </si>
+  <si>
+    <t>employee name</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Hire Date</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>job title</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAREZ, JOSE </t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>INTERN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM, JOHNNY </t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>TRAINEE</t>
+  </si>
+  <si>
+    <t>BAKER, SARAH</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>SALES EXECUTIVE</t>
+  </si>
+  <si>
+    <t>BALOTELLI, BILLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISHOP, TIANA </t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>BOATENG, TERRYY</t>
+  </si>
+  <si>
+    <t>ACCOUNTS</t>
+  </si>
+  <si>
+    <t>COST ACCOUNTANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOER, FRED </t>
+  </si>
+  <si>
+    <t>MKTG</t>
+  </si>
+  <si>
+    <t>DESIGNER</t>
+  </si>
+  <si>
+    <t>BARKER, BETTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURSTEYN , TOM </t>
+  </si>
+  <si>
+    <t>SALES TRAINEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURSTEYN, TAMMY </t>
+  </si>
+  <si>
+    <t>BUSSER, BOBBY</t>
+  </si>
+  <si>
+    <t>SENIOR ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>CASCIEWICZ, KATHY</t>
+  </si>
+  <si>
+    <t>SENIOR TECHNICIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLE, ASHLEY </t>
+  </si>
+  <si>
+    <t>COOKSON, CHARLES</t>
+  </si>
+  <si>
+    <t>R &amp; D</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROSSLEY, ERIN </t>
+  </si>
+  <si>
+    <t>TEAM LEADER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOE, JANE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOE, JOHN  </t>
+  </si>
+  <si>
+    <t>DARNSTEIN, DANNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALLENGRANO, BILL </t>
+  </si>
+  <si>
+    <t>Text Data</t>
+  </si>
+  <si>
+    <t>No of Letters to the left</t>
+  </si>
+  <si>
+    <t>No of Letters to the right</t>
+  </si>
+  <si>
+    <t>Hire Date, Salary, Dept, Job Title</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>JUAREZ, JOSE ;41297;39000;ADMIN;INTERN</t>
+  </si>
+  <si>
+    <t>Juarez</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>ABRAHAM, JOHNNY ;03/30/2013;27000;ENGINEERING;TRAINEE</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>BAKER, SARAH;04/30/2015;36000;SALES;SALES EXECUTIVE</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>BALOTELLI, BILLY;11/15/2007;23900;ENGINEERING;INTERN</t>
+  </si>
+  <si>
+    <t>Balotelli</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>BISHOP, TIANA ;37959;46500;ENGINEERING;MANAGER</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Tiana</t>
+  </si>
+  <si>
+    <t>BOATENG, TERRYY;07/27/2009;50000;ACCOUNTS;COST ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>Boateng</t>
+  </si>
+  <si>
+    <t>Terryy</t>
+  </si>
+  <si>
+    <t>BOER, FRED ;12/23/2010;46000;MKTG;DESIGNER</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>BARKER, BETTY;07/25/2007;43500;SALES;SALES EXECUTIVE</t>
+  </si>
+  <si>
+    <t>Barker</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>BURSTEYN , TOM ;36834;21000;SALES;SALES TRAINEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bursteyn </t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>BURSTEYN, TAMMY ;38238;38000;SALES;SALES EXECUTIVE</t>
+  </si>
+  <si>
+    <t>Bursteyn</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
+    <t>BUSSER, BOBBY;37417;29950;ACCOUNTS;SENIOR ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>Busser</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>CASCIEWICZ, KATHY; 12/15/2011;41000;SALES;SENIOR TECHNICIAN</t>
+  </si>
+  <si>
+    <t>Casciewicz</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>COLE, ASHLEY ;40483;54000;SALES;COST ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>COOKSON, CHARLES; 04/03/2012;63200;R &amp; D;VP</t>
+  </si>
+  <si>
+    <t>Cookson</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>CROSSLEY, ERIN ;04/23/2009;46000;ADMIN;TEAM LEADER</t>
+  </si>
+  <si>
+    <t>Crossley</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>DOE, JANE ;07/25/2015;21500;R &amp; D;TRAINEE</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>DOE, JOHN  ; 06/05/2014;45600;ENGINEERING;INTERN</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>DARNSTEIN, DANNY; 12/14/2011;52000;ENGINEERING;COST ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>Darnstein</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>FALLENGRANO, BILL ; 06/29/2001;56750;ENGINEERING;SENIOR ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>Fallengrano</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>CONCATENATING THE NAMES</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3530,12 +3871,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3724,12 +4089,160 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3846,138 +4359,233 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -4427,7 +5035,7 @@
   </sheetPr>
   <dimension ref="A1:F504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C477" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G481" sqref="G481"/>
     </sheetView>
   </sheetViews>
@@ -4438,7 +5046,7 @@
     <col min="3" max="3" width="40.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="43.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="53.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4457,7 +5065,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4477,7 +5085,7 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="41">
         <v>2992803</v>
       </c>
     </row>
@@ -4497,7 +5105,7 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="41">
         <v>3783352</v>
       </c>
     </row>
@@ -4517,7 +5125,7 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="41">
         <v>22661661</v>
       </c>
     </row>
@@ -4537,7 +5145,7 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="41">
         <v>10936312</v>
       </c>
     </row>
@@ -4557,7 +5165,7 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="41">
         <v>11282577</v>
       </c>
     </row>
@@ -4577,7 +5185,7 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="41">
         <v>19573101</v>
       </c>
     </row>
@@ -4597,7 +5205,7 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="41">
         <v>3292646</v>
       </c>
     </row>
@@ -4617,7 +5225,7 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="41">
         <v>23393897</v>
       </c>
     </row>
@@ -4637,7 +5245,7 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="41">
         <v>24009130</v>
       </c>
     </row>
@@ -4657,7 +5265,7 @@
       <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="41">
         <v>10005059</v>
       </c>
     </row>
@@ -4677,7 +5285,7 @@
       <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="41">
         <v>7808789</v>
       </c>
     </row>
@@ -4697,7 +5305,7 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="41">
         <v>20638379</v>
       </c>
     </row>
@@ -4717,7 +5325,7 @@
       <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="41">
         <v>26755705</v>
       </c>
     </row>
@@ -4737,7 +5345,7 @@
       <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="41">
         <v>13837411</v>
       </c>
     </row>
@@ -4757,7 +5365,7 @@
       <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="41">
         <v>6701639</v>
       </c>
     </row>
@@ -4777,7 +5385,7 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="41">
         <v>16273847</v>
       </c>
     </row>
@@ -4797,7 +5405,7 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="41">
         <v>6760104</v>
       </c>
     </row>
@@ -4817,7 +5425,7 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="41">
         <v>11590503</v>
       </c>
     </row>
@@ -4837,7 +5445,7 @@
       <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="41">
         <v>19076261</v>
       </c>
     </row>
@@ -4857,7 +5465,7 @@
       <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="41">
         <v>26706043</v>
       </c>
     </row>
@@ -4877,7 +5485,7 @@
       <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="41">
         <v>28459268</v>
       </c>
     </row>
@@ -4897,7 +5505,7 @@
       <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="41">
         <v>10944190</v>
       </c>
     </row>
@@ -4917,7 +5525,7 @@
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="41">
         <v>20306146</v>
       </c>
     </row>
@@ -4937,7 +5545,7 @@
       <c r="E25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="41">
         <v>9257842</v>
       </c>
     </row>
@@ -4957,7 +5565,7 @@
       <c r="E26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="41">
         <v>15842619</v>
       </c>
     </row>
@@ -4977,7 +5585,7 @@
       <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="41">
         <v>16341638</v>
       </c>
     </row>
@@ -4997,7 +5605,7 @@
       <c r="E28" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="41">
         <v>5276843</v>
       </c>
     </row>
@@ -5017,7 +5625,7 @@
       <c r="E29" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="41">
         <v>4432402</v>
       </c>
     </row>
@@ -5037,7 +5645,7 @@
       <c r="E30" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="41">
         <v>19351150</v>
       </c>
     </row>
@@ -5057,7 +5665,7 @@
       <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="41">
         <v>16099276</v>
       </c>
     </row>
@@ -5077,7 +5685,7 @@
       <c r="E32" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="41">
         <v>18997971</v>
       </c>
     </row>
@@ -5097,7 +5705,7 @@
       <c r="E33" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="41">
         <v>17044338</v>
       </c>
     </row>
@@ -5117,7 +5725,7 @@
       <c r="E34" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="41">
         <v>14479113</v>
       </c>
     </row>
@@ -5137,7 +5745,7 @@
       <c r="E35" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="41">
         <v>16331132</v>
       </c>
     </row>
@@ -5157,7 +5765,7 @@
       <c r="E36" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="41">
         <v>27783197</v>
       </c>
     </row>
@@ -5177,7 +5785,7 @@
       <c r="E37" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="41">
         <v>13906103</v>
       </c>
     </row>
@@ -5197,7 +5805,7 @@
       <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="41">
         <v>19711854</v>
       </c>
     </row>
@@ -5217,7 +5825,7 @@
       <c r="E39" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="41">
         <v>28020413</v>
       </c>
     </row>
@@ -5237,7 +5845,7 @@
       <c r="E40" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="41">
         <v>21180314</v>
       </c>
     </row>
@@ -5257,7 +5865,7 @@
       <c r="E41" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="41">
         <v>25617666</v>
       </c>
     </row>
@@ -5277,7 +5885,7 @@
       <c r="E42" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="41">
         <v>5445588</v>
       </c>
     </row>
@@ -5297,7 +5905,7 @@
       <c r="E43" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="41">
         <v>24796849</v>
       </c>
     </row>
@@ -5317,7 +5925,7 @@
       <c r="E44" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="41">
         <v>16784732</v>
       </c>
     </row>
@@ -5337,7 +5945,7 @@
       <c r="E45" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="41">
         <v>14648842</v>
       </c>
     </row>
@@ -5357,7 +5965,7 @@
       <c r="E46" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="41">
         <v>7247450</v>
       </c>
     </row>
@@ -5377,7 +5985,7 @@
       <c r="E47" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="41">
         <v>3226475</v>
       </c>
     </row>
@@ -5397,7 +6005,7 @@
       <c r="E48" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="41">
         <v>15902983</v>
       </c>
     </row>
@@ -5417,7 +6025,7 @@
       <c r="E49" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="41">
         <v>10377678</v>
       </c>
     </row>
@@ -5437,7 +6045,7 @@
       <c r="E50" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="41">
         <v>6862213</v>
       </c>
     </row>
@@ -5457,7 +6065,7 @@
       <c r="E51" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="41">
         <v>4956835</v>
       </c>
     </row>
@@ -5477,7 +6085,7 @@
       <c r="E52" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="41">
         <v>2518546</v>
       </c>
     </row>
@@ -5497,7 +6105,7 @@
       <c r="E53" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="41">
         <v>19471378</v>
       </c>
     </row>
@@ -5517,7 +6125,7 @@
       <c r="E54" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="41">
         <v>18252162</v>
       </c>
     </row>
@@ -5537,7 +6145,7 @@
       <c r="E55" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="41">
         <v>12528640</v>
       </c>
     </row>
@@ -5557,7 +6165,7 @@
       <c r="E56" t="s">
         <v>162</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="41">
         <v>25344244</v>
       </c>
     </row>
@@ -5577,7 +6185,7 @@
       <c r="E57" t="s">
         <v>163</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="41">
         <v>10635921</v>
       </c>
     </row>
@@ -5597,7 +6205,7 @@
       <c r="E58" t="s">
         <v>165</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="41">
         <v>2031030</v>
       </c>
     </row>
@@ -5617,7 +6225,7 @@
       <c r="E59" t="s">
         <v>168</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="41">
         <v>13876748</v>
       </c>
     </row>
@@ -5637,7 +6245,7 @@
       <c r="E60" t="s">
         <v>171</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="41">
         <v>5979587</v>
       </c>
     </row>
@@ -5657,7 +6265,7 @@
       <c r="E61" t="s">
         <v>174</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="41">
         <v>12303134</v>
       </c>
     </row>
@@ -5677,7 +6285,7 @@
       <c r="E62" t="s">
         <v>176</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="41">
         <v>17146112</v>
       </c>
     </row>
@@ -5697,7 +6305,7 @@
       <c r="E63" t="s">
         <v>179</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="41">
         <v>28882070</v>
       </c>
     </row>
@@ -5717,7 +6325,7 @@
       <c r="E64" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="41">
         <v>12286201</v>
       </c>
     </row>
@@ -5737,7 +6345,7 @@
       <c r="E65" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="41">
         <v>8068925</v>
       </c>
     </row>
@@ -5757,7 +6365,7 @@
       <c r="E66" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="41">
         <v>26382154</v>
       </c>
     </row>
@@ -5777,7 +6385,7 @@
       <c r="E67" t="s">
         <v>189</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="41">
         <v>29612669</v>
       </c>
     </row>
@@ -5797,7 +6405,7 @@
       <c r="E68" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="41">
         <v>29374135</v>
       </c>
     </row>
@@ -5817,7 +6425,7 @@
       <c r="E69" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="41">
         <v>28144635</v>
       </c>
     </row>
@@ -5837,7 +6445,7 @@
       <c r="E70" t="s">
         <v>196</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="41">
         <v>18239305</v>
       </c>
     </row>
@@ -5857,7 +6465,7 @@
       <c r="E71" t="s">
         <v>20</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="41">
         <v>27542959</v>
       </c>
     </row>
@@ -5877,7 +6485,7 @@
       <c r="E72" t="s">
         <v>202</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="41">
         <v>5195936</v>
       </c>
     </row>
@@ -5897,7 +6505,7 @@
       <c r="E73" t="s">
         <v>206</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="41">
         <v>28704817</v>
       </c>
     </row>
@@ -5917,7 +6525,7 @@
       <c r="E74" t="s">
         <v>110</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="41">
         <v>14908014</v>
       </c>
     </row>
@@ -5937,7 +6545,7 @@
       <c r="E75" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="41">
         <v>16039131</v>
       </c>
     </row>
@@ -5957,7 +6565,7 @@
       <c r="E76" t="s">
         <v>212</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="41">
         <v>15687902</v>
       </c>
     </row>
@@ -5977,7 +6585,7 @@
       <c r="E77" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="41">
         <v>20458194</v>
       </c>
     </row>
@@ -5997,7 +6605,7 @@
       <c r="E78" t="s">
         <v>219</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="41">
         <v>14926272</v>
       </c>
     </row>
@@ -6017,7 +6625,7 @@
       <c r="E79" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="41">
         <v>20722252</v>
       </c>
     </row>
@@ -6037,7 +6645,7 @@
       <c r="E80" t="s">
         <v>223</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="41">
         <v>17212238</v>
       </c>
     </row>
@@ -6057,7 +6665,7 @@
       <c r="E81" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="41">
         <v>8159866</v>
       </c>
     </row>
@@ -6077,7 +6685,7 @@
       <c r="E82" t="s">
         <v>122</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="41">
         <v>7766769</v>
       </c>
     </row>
@@ -6097,7 +6705,7 @@
       <c r="E83" t="s">
         <v>227</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="41">
         <v>11200322</v>
       </c>
     </row>
@@ -6117,7 +6725,7 @@
       <c r="E84" t="s">
         <v>229</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="41">
         <v>21448912</v>
       </c>
     </row>
@@ -6137,7 +6745,7 @@
       <c r="E85" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="41">
         <v>12462659</v>
       </c>
     </row>
@@ -6157,7 +6765,7 @@
       <c r="E86" t="s">
         <v>24</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="41">
         <v>24237554</v>
       </c>
     </row>
@@ -6177,7 +6785,7 @@
       <c r="E87" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="41">
         <v>21187769</v>
       </c>
     </row>
@@ -6197,7 +6805,7 @@
       <c r="E88" t="s">
         <v>235</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="41">
         <v>29089944</v>
       </c>
     </row>
@@ -6217,7 +6825,7 @@
       <c r="E89" t="s">
         <v>238</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="41">
         <v>16873251</v>
       </c>
     </row>
@@ -6237,7 +6845,7 @@
       <c r="E90" t="s">
         <v>242</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="41">
         <v>11553729</v>
       </c>
     </row>
@@ -6257,7 +6865,7 @@
       <c r="E91" t="s">
         <v>244</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="41">
         <v>27858703</v>
       </c>
     </row>
@@ -6277,7 +6885,7 @@
       <c r="E92" t="s">
         <v>247</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="41">
         <v>23844222</v>
       </c>
     </row>
@@ -6297,7 +6905,7 @@
       <c r="E93" t="s">
         <v>38</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="41">
         <v>12138361</v>
       </c>
     </row>
@@ -6317,7 +6925,7 @@
       <c r="E94" t="s">
         <v>253</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="41">
         <v>29115110</v>
       </c>
     </row>
@@ -6337,7 +6945,7 @@
       <c r="E95" t="s">
         <v>238</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="41">
         <v>10253959</v>
       </c>
     </row>
@@ -6357,7 +6965,7 @@
       <c r="E96" t="s">
         <v>257</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="41">
         <v>14304286</v>
       </c>
     </row>
@@ -6377,7 +6985,7 @@
       <c r="E97" t="s">
         <v>124</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="41">
         <v>25107419</v>
       </c>
     </row>
@@ -6397,7 +7005,7 @@
       <c r="E98" t="s">
         <v>114</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="41">
         <v>26204121</v>
       </c>
     </row>
@@ -6417,7 +7025,7 @@
       <c r="E99" t="s">
         <v>262</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="41">
         <v>4480550</v>
       </c>
     </row>
@@ -6437,7 +7045,7 @@
       <c r="E100" t="s">
         <v>176</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="41">
         <v>5485292</v>
       </c>
     </row>
@@ -6457,7 +7065,7 @@
       <c r="E101" t="s">
         <v>124</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="41">
         <v>22413897</v>
       </c>
     </row>
@@ -6477,7 +7085,7 @@
       <c r="E102" t="s">
         <v>269</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="41">
         <v>8436477</v>
       </c>
     </row>
@@ -6497,7 +7105,7 @@
       <c r="E103" t="s">
         <v>272</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="41">
         <v>29042288</v>
       </c>
     </row>
@@ -6517,7 +7125,7 @@
       <c r="E104" t="s">
         <v>274</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="41">
         <v>13647214</v>
       </c>
     </row>
@@ -6537,7 +7145,7 @@
       <c r="E105" t="s">
         <v>277</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="41">
         <v>17192650</v>
       </c>
     </row>
@@ -6557,7 +7165,7 @@
       <c r="E106" t="s">
         <v>280</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="41">
         <v>28878316</v>
       </c>
     </row>
@@ -6577,7 +7185,7 @@
       <c r="E107" t="s">
         <v>98</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="41">
         <v>7931577</v>
       </c>
     </row>
@@ -6597,7 +7205,7 @@
       <c r="E108" t="s">
         <v>285</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="41">
         <v>29450741</v>
       </c>
     </row>
@@ -6617,7 +7225,7 @@
       <c r="E109" t="s">
         <v>104</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="41">
         <v>17237028</v>
       </c>
     </row>
@@ -6637,7 +7245,7 @@
       <c r="E110" t="s">
         <v>288</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="41">
         <v>22486591</v>
       </c>
     </row>
@@ -6657,7 +7265,7 @@
       <c r="E111" t="s">
         <v>290</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="41">
         <v>8791773</v>
       </c>
     </row>
@@ -6677,7 +7285,7 @@
       <c r="E112" t="s">
         <v>292</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="41">
         <v>21865688</v>
       </c>
     </row>
@@ -6697,7 +7305,7 @@
       <c r="E113" t="s">
         <v>295</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="41">
         <v>13132468</v>
       </c>
     </row>
@@ -6717,7 +7325,7 @@
       <c r="E114" t="s">
         <v>297</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="41">
         <v>3443756</v>
       </c>
     </row>
@@ -6737,7 +7345,7 @@
       <c r="E115" t="s">
         <v>299</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="41">
         <v>20754751</v>
       </c>
     </row>
@@ -6757,7 +7365,7 @@
       <c r="E116" t="s">
         <v>301</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="41">
         <v>7719573</v>
       </c>
     </row>
@@ -6777,7 +7385,7 @@
       <c r="E117" t="s">
         <v>303</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="41">
         <v>8639142</v>
       </c>
     </row>
@@ -6797,7 +7405,7 @@
       <c r="E118" t="s">
         <v>147</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="41">
         <v>12026048</v>
       </c>
     </row>
@@ -6817,7 +7425,7 @@
       <c r="E119" t="s">
         <v>171</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="41">
         <v>18173551</v>
       </c>
     </row>
@@ -6837,7 +7445,7 @@
       <c r="E120" t="s">
         <v>78</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="41">
         <v>28736353</v>
       </c>
     </row>
@@ -6857,7 +7465,7 @@
       <c r="E121" t="s">
         <v>313</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="41">
         <v>26592452</v>
       </c>
     </row>
@@ -6877,7 +7485,7 @@
       <c r="E122" t="s">
         <v>315</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="41">
         <v>16131344</v>
       </c>
     </row>
@@ -6897,7 +7505,7 @@
       <c r="E123" t="s">
         <v>319</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="41">
         <v>1343683</v>
       </c>
     </row>
@@ -6917,7 +7525,7 @@
       <c r="E124" t="s">
         <v>171</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="41">
         <v>17232694</v>
       </c>
     </row>
@@ -6937,7 +7545,7 @@
       <c r="E125" t="s">
         <v>119</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="41">
         <v>26216213</v>
       </c>
     </row>
@@ -6957,7 +7565,7 @@
       <c r="E126" t="s">
         <v>147</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="41">
         <v>11350733</v>
       </c>
     </row>
@@ -6977,7 +7585,7 @@
       <c r="E127" t="s">
         <v>327</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="41">
         <v>21892264</v>
       </c>
     </row>
@@ -6997,7 +7605,7 @@
       <c r="E128" t="s">
         <v>119</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="41">
         <v>20528854</v>
       </c>
     </row>
@@ -7017,7 +7625,7 @@
       <c r="E129" t="s">
         <v>331</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="41">
         <v>16723193</v>
       </c>
     </row>
@@ -7037,7 +7645,7 @@
       <c r="E130" t="s">
         <v>334</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="41">
         <v>21846571</v>
       </c>
     </row>
@@ -7057,7 +7665,7 @@
       <c r="E131" t="s">
         <v>337</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="41">
         <v>16766747</v>
       </c>
     </row>
@@ -7077,7 +7685,7 @@
       <c r="E132" t="s">
         <v>179</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="41">
         <v>9319494</v>
       </c>
     </row>
@@ -7097,7 +7705,7 @@
       <c r="E133" t="s">
         <v>342</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="41">
         <v>10162556</v>
       </c>
     </row>
@@ -7117,7 +7725,7 @@
       <c r="E134" t="s">
         <v>171</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="41">
         <v>15697818</v>
       </c>
     </row>
@@ -7137,7 +7745,7 @@
       <c r="E135" t="s">
         <v>346</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="41">
         <v>29854791</v>
       </c>
     </row>
@@ -7157,7 +7765,7 @@
       <c r="E136" t="s">
         <v>292</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="41">
         <v>3790517</v>
       </c>
     </row>
@@ -7177,7 +7785,7 @@
       <c r="E137" t="s">
         <v>110</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="41">
         <v>26091542</v>
       </c>
     </row>
@@ -7197,7 +7805,7 @@
       <c r="E138" t="s">
         <v>351</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="41">
         <v>15421379</v>
       </c>
     </row>
@@ -7217,7 +7825,7 @@
       <c r="E139" t="s">
         <v>354</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="41">
         <v>18911667</v>
       </c>
     </row>
@@ -7237,7 +7845,7 @@
       <c r="E140" t="s">
         <v>357</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="41">
         <v>27995199</v>
       </c>
     </row>
@@ -7257,7 +7865,7 @@
       <c r="E141" t="s">
         <v>360</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="41">
         <v>21884637</v>
       </c>
     </row>
@@ -7277,7 +7885,7 @@
       <c r="E142" t="s">
         <v>363</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="41">
         <v>4606201</v>
       </c>
     </row>
@@ -7297,7 +7905,7 @@
       <c r="E143" t="s">
         <v>20</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="41">
         <v>18551484</v>
       </c>
     </row>
@@ -7317,7 +7925,7 @@
       <c r="E144" t="s">
         <v>368</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="41">
         <v>5748145</v>
       </c>
     </row>
@@ -7337,7 +7945,7 @@
       <c r="E145" t="s">
         <v>354</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="41">
         <v>6598737</v>
       </c>
     </row>
@@ -7357,7 +7965,7 @@
       <c r="E146" t="s">
         <v>374</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="41">
         <v>16334409</v>
       </c>
     </row>
@@ -7377,7 +7985,7 @@
       <c r="E147" t="s">
         <v>119</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="41">
         <v>13050944</v>
       </c>
     </row>
@@ -7397,7 +8005,7 @@
       <c r="E148" t="s">
         <v>110</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="41">
         <v>2236514</v>
       </c>
     </row>
@@ -7417,7 +8025,7 @@
       <c r="E149" t="s">
         <v>110</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="41">
         <v>10055193</v>
       </c>
     </row>
@@ -7437,7 +8045,7 @@
       <c r="E150" t="s">
         <v>382</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="41">
         <v>17793187</v>
       </c>
     </row>
@@ -7457,7 +8065,7 @@
       <c r="E151" t="s">
         <v>20</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="41">
         <v>23208665</v>
       </c>
     </row>
@@ -7477,7 +8085,7 @@
       <c r="E152" t="s">
         <v>351</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="41">
         <v>4088111</v>
       </c>
     </row>
@@ -7497,7 +8105,7 @@
       <c r="E153" t="s">
         <v>389</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="41">
         <v>20006992</v>
       </c>
     </row>
@@ -7517,7 +8125,7 @@
       <c r="E154" t="s">
         <v>144</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="41">
         <v>4223503</v>
       </c>
     </row>
@@ -7537,7 +8145,7 @@
       <c r="E155" t="s">
         <v>363</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="41">
         <v>1624727</v>
       </c>
     </row>
@@ -7557,7 +8165,7 @@
       <c r="E156" t="s">
         <v>395</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="41">
         <v>5983486</v>
       </c>
     </row>
@@ -7577,7 +8185,7 @@
       <c r="E157" t="s">
         <v>399</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="41">
         <v>4163078</v>
       </c>
     </row>
@@ -7597,7 +8205,7 @@
       <c r="E158" t="s">
         <v>402</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="41">
         <v>6934057</v>
       </c>
     </row>
@@ -7617,7 +8225,7 @@
       <c r="E159" t="s">
         <v>247</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="41">
         <v>29950560</v>
       </c>
     </row>
@@ -7637,7 +8245,7 @@
       <c r="E160" t="s">
         <v>406</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="41">
         <v>21175272</v>
       </c>
     </row>
@@ -7657,7 +8265,7 @@
       <c r="E161" t="s">
         <v>409</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="41">
         <v>24458078</v>
       </c>
     </row>
@@ -7677,7 +8285,7 @@
       <c r="E162" t="s">
         <v>78</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="41">
         <v>19374256</v>
       </c>
     </row>
@@ -7697,7 +8305,7 @@
       <c r="E163" t="s">
         <v>292</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="41">
         <v>22488659</v>
       </c>
     </row>
@@ -7717,7 +8325,7 @@
       <c r="E164" t="s">
         <v>171</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="41">
         <v>2851734</v>
       </c>
     </row>
@@ -7737,7 +8345,7 @@
       <c r="E165" t="s">
         <v>297</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="41">
         <v>8905226</v>
       </c>
     </row>
@@ -7757,7 +8365,7 @@
       <c r="E166" t="s">
         <v>24</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="41">
         <v>22449210</v>
       </c>
     </row>
@@ -7777,7 +8385,7 @@
       <c r="E167" t="s">
         <v>395</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="41">
         <v>17218193</v>
       </c>
     </row>
@@ -7797,7 +8405,7 @@
       <c r="E168" t="s">
         <v>419</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="41">
         <v>16470765</v>
       </c>
     </row>
@@ -7817,7 +8425,7 @@
       <c r="E169" t="s">
         <v>421</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="41">
         <v>28792757</v>
       </c>
     </row>
@@ -7837,7 +8445,7 @@
       <c r="E170" t="s">
         <v>137</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="41">
         <v>1390284</v>
       </c>
     </row>
@@ -7857,7 +8465,7 @@
       <c r="E171" t="s">
         <v>424</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="41">
         <v>20618578</v>
       </c>
     </row>
@@ -7877,7 +8485,7 @@
       <c r="E172" t="s">
         <v>426</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172" s="41">
         <v>5871845</v>
       </c>
     </row>
@@ -7897,7 +8505,7 @@
       <c r="E173" t="s">
         <v>20</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="41">
         <v>14762948</v>
       </c>
     </row>
@@ -7917,7 +8525,7 @@
       <c r="E174" t="s">
         <v>431</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="41">
         <v>15323921</v>
       </c>
     </row>
@@ -7937,7 +8545,7 @@
       <c r="E175" t="s">
         <v>433</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="41">
         <v>10365513</v>
       </c>
     </row>
@@ -7957,7 +8565,7 @@
       <c r="E176" t="s">
         <v>436</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="41">
         <v>25725944</v>
       </c>
     </row>
@@ -7977,7 +8585,7 @@
       <c r="E177" t="s">
         <v>439</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="41">
         <v>21191954</v>
       </c>
     </row>
@@ -7997,7 +8605,7 @@
       <c r="E178" t="s">
         <v>442</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="41">
         <v>3159789</v>
       </c>
     </row>
@@ -8017,7 +8625,7 @@
       <c r="E179" t="s">
         <v>445</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="41">
         <v>13377679</v>
       </c>
     </row>
@@ -8037,7 +8645,7 @@
       <c r="E180" t="s">
         <v>449</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="41">
         <v>20871813</v>
       </c>
     </row>
@@ -8057,7 +8665,7 @@
       <c r="E181" t="s">
         <v>452</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="41">
         <v>28483330</v>
       </c>
     </row>
@@ -8077,7 +8685,7 @@
       <c r="E182" t="s">
         <v>137</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182" s="41">
         <v>15631102</v>
       </c>
     </row>
@@ -8097,7 +8705,7 @@
       <c r="E183" t="s">
         <v>295</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="41">
         <v>1197028</v>
       </c>
     </row>
@@ -8117,7 +8725,7 @@
       <c r="E184" t="s">
         <v>238</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184" s="41">
         <v>25774339</v>
       </c>
     </row>
@@ -8137,7 +8745,7 @@
       <c r="E185" t="s">
         <v>458</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="41">
         <v>11791993</v>
       </c>
     </row>
@@ -8157,7 +8765,7 @@
       <c r="E186" t="s">
         <v>460</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="41">
         <v>15629038</v>
       </c>
     </row>
@@ -8177,7 +8785,7 @@
       <c r="E187" t="s">
         <v>176</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="41">
         <v>18947383</v>
       </c>
     </row>
@@ -8197,7 +8805,7 @@
       <c r="E188" t="s">
         <v>465</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="41">
         <v>26878142</v>
       </c>
     </row>
@@ -8217,7 +8825,7 @@
       <c r="E189" t="s">
         <v>468</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="41">
         <v>3232962</v>
       </c>
     </row>
@@ -8237,7 +8845,7 @@
       <c r="E190" t="s">
         <v>471</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190" s="41">
         <v>10574206</v>
       </c>
     </row>
@@ -8257,7 +8865,7 @@
       <c r="E191" t="s">
         <v>474</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191" s="41">
         <v>20953474</v>
       </c>
     </row>
@@ -8277,7 +8885,7 @@
       <c r="E192" t="s">
         <v>460</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192" s="41">
         <v>16981205</v>
       </c>
     </row>
@@ -8297,7 +8905,7 @@
       <c r="E193" t="s">
         <v>468</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193" s="41">
         <v>10620480</v>
       </c>
     </row>
@@ -8317,7 +8925,7 @@
       <c r="E194" t="s">
         <v>480</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="41">
         <v>19222796</v>
       </c>
     </row>
@@ -8337,7 +8945,7 @@
       <c r="E195" t="s">
         <v>483</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195" s="41">
         <v>24470099</v>
       </c>
     </row>
@@ -8357,7 +8965,7 @@
       <c r="E196" t="s">
         <v>487</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="41">
         <v>1051971</v>
       </c>
     </row>
@@ -8377,7 +8985,7 @@
       <c r="E197" t="s">
         <v>489</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197" s="41">
         <v>26980917</v>
       </c>
     </row>
@@ -8397,7 +9005,7 @@
       <c r="E198" t="s">
         <v>292</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198" s="41">
         <v>25285543</v>
       </c>
     </row>
@@ -8417,7 +9025,7 @@
       <c r="E199" t="s">
         <v>363</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199" s="41">
         <v>24651935</v>
       </c>
     </row>
@@ -8437,7 +9045,7 @@
       <c r="E200" t="s">
         <v>351</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200" s="41">
         <v>21619479</v>
       </c>
     </row>
@@ -8457,7 +9065,7 @@
       <c r="E201" t="s">
         <v>219</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201" s="41">
         <v>29515166</v>
       </c>
     </row>
@@ -8477,7 +9085,7 @@
       <c r="E202" t="s">
         <v>499</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202" s="41">
         <v>23194626</v>
       </c>
     </row>
@@ -8497,7 +9105,7 @@
       <c r="E203" t="s">
         <v>295</v>
       </c>
-      <c r="F203" s="2">
+      <c r="F203" s="41">
         <v>29178364</v>
       </c>
     </row>
@@ -8517,7 +9125,7 @@
       <c r="E204" t="s">
         <v>503</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204" s="41">
         <v>11488830</v>
       </c>
     </row>
@@ -8537,7 +9145,7 @@
       <c r="E205" t="s">
         <v>505</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205" s="41">
         <v>23665172</v>
       </c>
     </row>
@@ -8557,7 +9165,7 @@
       <c r="E206" t="s">
         <v>507</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206" s="41">
         <v>8918662</v>
       </c>
     </row>
@@ -8577,7 +9185,7 @@
       <c r="E207" t="s">
         <v>171</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207" s="41">
         <v>26773364</v>
       </c>
     </row>
@@ -8597,7 +9205,7 @@
       <c r="E208" t="s">
         <v>511</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="41">
         <v>27554076</v>
       </c>
     </row>
@@ -8617,7 +9225,7 @@
       <c r="E209" t="s">
         <v>295</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="41">
         <v>12348163</v>
       </c>
     </row>
@@ -8637,7 +9245,7 @@
       <c r="E210" t="s">
         <v>517</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="41">
         <v>27226644</v>
       </c>
     </row>
@@ -8657,7 +9265,7 @@
       <c r="E211" t="s">
         <v>227</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211" s="41">
         <v>16415323</v>
       </c>
     </row>
@@ -8677,7 +9285,7 @@
       <c r="E212" t="s">
         <v>521</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="41">
         <v>7341287</v>
       </c>
     </row>
@@ -8697,7 +9305,7 @@
       <c r="E213" t="s">
         <v>523</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="41">
         <v>13769924</v>
       </c>
     </row>
@@ -8717,7 +9325,7 @@
       <c r="E214" t="s">
         <v>110</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="41">
         <v>28980461</v>
       </c>
     </row>
@@ -8737,7 +9345,7 @@
       <c r="E215" t="s">
         <v>527</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="41">
         <v>22674176</v>
       </c>
     </row>
@@ -8757,7 +9365,7 @@
       <c r="E216" t="s">
         <v>483</v>
       </c>
-      <c r="F216" s="2">
+      <c r="F216" s="41">
         <v>12628994</v>
       </c>
     </row>
@@ -8777,7 +9385,7 @@
       <c r="E217" t="s">
         <v>531</v>
       </c>
-      <c r="F217" s="2">
+      <c r="F217" s="41">
         <v>12904119</v>
       </c>
     </row>
@@ -8797,7 +9405,7 @@
       <c r="E218" t="s">
         <v>78</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218" s="41">
         <v>4192575</v>
       </c>
     </row>
@@ -8817,7 +9425,7 @@
       <c r="E219" t="s">
         <v>351</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219" s="41">
         <v>17358282</v>
       </c>
     </row>
@@ -8837,7 +9445,7 @@
       <c r="E220" t="s">
         <v>171</v>
       </c>
-      <c r="F220" s="2">
+      <c r="F220" s="41">
         <v>8797360</v>
       </c>
     </row>
@@ -8857,7 +9465,7 @@
       <c r="E221" t="s">
         <v>538</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221" s="41">
         <v>5901271</v>
       </c>
     </row>
@@ -8877,7 +9485,7 @@
       <c r="E222" t="s">
         <v>541</v>
       </c>
-      <c r="F222" s="2">
+      <c r="F222" s="41">
         <v>19256727</v>
       </c>
     </row>
@@ -8897,7 +9505,7 @@
       <c r="E223" t="s">
         <v>544</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F223" s="41">
         <v>19105472</v>
       </c>
     </row>
@@ -8917,7 +9525,7 @@
       <c r="E224" t="s">
         <v>20</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224" s="41">
         <v>15859155</v>
       </c>
     </row>
@@ -8937,7 +9545,7 @@
       <c r="E225" t="s">
         <v>548</v>
       </c>
-      <c r="F225" s="2">
+      <c r="F225" s="41">
         <v>9322012</v>
       </c>
     </row>
@@ -8957,7 +9565,7 @@
       <c r="E226" t="s">
         <v>550</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226" s="41">
         <v>8162449</v>
       </c>
     </row>
@@ -8977,7 +9585,7 @@
       <c r="E227" t="s">
         <v>552</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227" s="41">
         <v>12219390</v>
       </c>
     </row>
@@ -8997,7 +9605,7 @@
       <c r="E228" t="s">
         <v>351</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228" s="41">
         <v>5100948</v>
       </c>
     </row>
@@ -9017,7 +9625,7 @@
       <c r="E229" t="s">
         <v>171</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229" s="41">
         <v>24140144</v>
       </c>
     </row>
@@ -9037,7 +9645,7 @@
       <c r="E230" t="s">
         <v>558</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230" s="41">
         <v>24102575</v>
       </c>
     </row>
@@ -9057,7 +9665,7 @@
       <c r="E231" t="s">
         <v>288</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231" s="41">
         <v>18069700</v>
       </c>
     </row>
@@ -9077,7 +9685,7 @@
       <c r="E232" t="s">
         <v>563</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232" s="41">
         <v>26614111</v>
       </c>
     </row>
@@ -9097,7 +9705,7 @@
       <c r="E233" t="s">
         <v>566</v>
       </c>
-      <c r="F233" s="2">
+      <c r="F233" s="41">
         <v>27979720</v>
       </c>
     </row>
@@ -9117,7 +9725,7 @@
       <c r="E234" t="s">
         <v>568</v>
       </c>
-      <c r="F234" s="2">
+      <c r="F234" s="41">
         <v>12668083</v>
       </c>
     </row>
@@ -9137,7 +9745,7 @@
       <c r="E235" t="s">
         <v>153</v>
       </c>
-      <c r="F235" s="2">
+      <c r="F235" s="41">
         <v>12476168</v>
       </c>
     </row>
@@ -9157,7 +9765,7 @@
       <c r="E236" t="s">
         <v>171</v>
       </c>
-      <c r="F236" s="2">
+      <c r="F236" s="41">
         <v>4109888</v>
       </c>
     </row>
@@ -9177,7 +9785,7 @@
       <c r="E237" t="s">
         <v>171</v>
       </c>
-      <c r="F237" s="2">
+      <c r="F237" s="41">
         <v>25881088</v>
       </c>
     </row>
@@ -9197,7 +9805,7 @@
       <c r="E238" t="s">
         <v>575</v>
       </c>
-      <c r="F238" s="2">
+      <c r="F238" s="41">
         <v>15785629</v>
       </c>
     </row>
@@ -9217,7 +9825,7 @@
       <c r="E239" t="s">
         <v>171</v>
       </c>
-      <c r="F239" s="2">
+      <c r="F239" s="41">
         <v>2013462</v>
       </c>
     </row>
@@ -9237,7 +9845,7 @@
       <c r="E240" t="s">
         <v>458</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F240" s="41">
         <v>20344905</v>
       </c>
     </row>
@@ -9257,7 +9865,7 @@
       <c r="E241" t="s">
         <v>110</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241" s="41">
         <v>15231145</v>
       </c>
     </row>
@@ -9277,7 +9885,7 @@
       <c r="E242" t="s">
         <v>579</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242" s="41">
         <v>12600355</v>
       </c>
     </row>
@@ -9297,7 +9905,7 @@
       <c r="E243" t="s">
         <v>171</v>
       </c>
-      <c r="F243" s="2">
+      <c r="F243" s="41">
         <v>1614340</v>
       </c>
     </row>
@@ -9317,7 +9925,7 @@
       <c r="E244" t="s">
         <v>580</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244" s="41">
         <v>27111916</v>
       </c>
     </row>
@@ -9337,7 +9945,7 @@
       <c r="E245" t="s">
         <v>583</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245" s="41">
         <v>19608535</v>
       </c>
     </row>
@@ -9357,7 +9965,7 @@
       <c r="E246" t="s">
         <v>587</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246" s="41">
         <v>28825796</v>
       </c>
     </row>
@@ -9377,7 +9985,7 @@
       <c r="E247" t="s">
         <v>590</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247" s="41">
         <v>14324882</v>
       </c>
     </row>
@@ -9397,7 +10005,7 @@
       <c r="E248" t="s">
         <v>593</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F248" s="41">
         <v>8695714</v>
       </c>
     </row>
@@ -9417,7 +10025,7 @@
       <c r="E249" t="s">
         <v>596</v>
       </c>
-      <c r="F249" s="2">
+      <c r="F249" s="41">
         <v>24975867</v>
       </c>
     </row>
@@ -9437,7 +10045,7 @@
       <c r="E250" t="s">
         <v>292</v>
       </c>
-      <c r="F250" s="2">
+      <c r="F250" s="41">
         <v>1522033</v>
       </c>
     </row>
@@ -9457,7 +10065,7 @@
       <c r="E251" t="s">
         <v>171</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F251" s="41">
         <v>8919460</v>
       </c>
     </row>
@@ -9477,7 +10085,7 @@
       <c r="E252" t="s">
         <v>601</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252" s="41">
         <v>21833594</v>
       </c>
     </row>
@@ -9497,7 +10105,7 @@
       <c r="E253" t="s">
         <v>171</v>
       </c>
-      <c r="F253" s="2">
+      <c r="F253" s="41">
         <v>8916011</v>
       </c>
     </row>
@@ -9517,7 +10125,7 @@
       <c r="E254" t="s">
         <v>604</v>
       </c>
-      <c r="F254" s="2">
+      <c r="F254" s="41">
         <v>9090297</v>
       </c>
     </row>
@@ -9537,7 +10145,7 @@
       <c r="E255" t="s">
         <v>24</v>
       </c>
-      <c r="F255" s="2">
+      <c r="F255" s="41">
         <v>21527147</v>
       </c>
     </row>
@@ -9557,7 +10165,7 @@
       <c r="E256" t="s">
         <v>607</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256" s="41">
         <v>25951471</v>
       </c>
     </row>
@@ -9577,7 +10185,7 @@
       <c r="E257" t="s">
         <v>611</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257" s="41">
         <v>7916828</v>
       </c>
     </row>
@@ -9597,7 +10205,7 @@
       <c r="E258" t="s">
         <v>613</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258" s="41">
         <v>1646218</v>
       </c>
     </row>
@@ -9617,7 +10225,7 @@
       <c r="E259" t="s">
         <v>14</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259" s="41">
         <v>26834865</v>
       </c>
     </row>
@@ -9637,7 +10245,7 @@
       <c r="E260" t="s">
         <v>618</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260" s="41">
         <v>13050442</v>
       </c>
     </row>
@@ -9657,7 +10265,7 @@
       <c r="E261" t="s">
         <v>621</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261" s="41">
         <v>17725071</v>
       </c>
     </row>
@@ -9677,7 +10285,7 @@
       <c r="E262" t="s">
         <v>433</v>
       </c>
-      <c r="F262" s="2">
+      <c r="F262" s="41">
         <v>26211912</v>
       </c>
     </row>
@@ -9697,7 +10305,7 @@
       <c r="E263" t="s">
         <v>153</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263" s="41">
         <v>1699322</v>
       </c>
     </row>
@@ -9717,7 +10325,7 @@
       <c r="E264" t="s">
         <v>171</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264" s="41">
         <v>21595952</v>
       </c>
     </row>
@@ -9737,7 +10345,7 @@
       <c r="E265" t="s">
         <v>227</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265" s="41">
         <v>28737621</v>
       </c>
     </row>
@@ -9757,7 +10365,7 @@
       <c r="E266" t="s">
         <v>628</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266" s="41">
         <v>8750878</v>
       </c>
     </row>
@@ -9777,7 +10385,7 @@
       <c r="E267" t="s">
         <v>631</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267" s="41">
         <v>3151342</v>
       </c>
     </row>
@@ -9797,7 +10405,7 @@
       <c r="E268" t="s">
         <v>633</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268" s="41">
         <v>13561785</v>
       </c>
     </row>
@@ -9817,7 +10425,7 @@
       <c r="E269" t="s">
         <v>295</v>
       </c>
-      <c r="F269" s="2">
+      <c r="F269" s="41">
         <v>2949274</v>
       </c>
     </row>
@@ -9837,7 +10445,7 @@
       <c r="E270" t="s">
         <v>636</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270" s="41">
         <v>19997385</v>
       </c>
     </row>
@@ -9857,7 +10465,7 @@
       <c r="E271" t="s">
         <v>638</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271" s="41">
         <v>6017741</v>
       </c>
     </row>
@@ -9877,7 +10485,7 @@
       <c r="E272" t="s">
         <v>12</v>
       </c>
-      <c r="F272" s="2">
+      <c r="F272" s="41">
         <v>11084668</v>
       </c>
     </row>
@@ -9897,7 +10505,7 @@
       <c r="E273" t="s">
         <v>351</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273" s="41">
         <v>26085144</v>
       </c>
     </row>
@@ -9917,7 +10525,7 @@
       <c r="E274" t="s">
         <v>24</v>
       </c>
-      <c r="F274" s="2">
+      <c r="F274" s="41">
         <v>21748329</v>
       </c>
     </row>
@@ -9937,7 +10545,7 @@
       <c r="E275" t="s">
         <v>646</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275" s="41">
         <v>9878084</v>
       </c>
     </row>
@@ -9957,7 +10565,7 @@
       <c r="E276" t="s">
         <v>171</v>
       </c>
-      <c r="F276" s="2">
+      <c r="F276" s="41">
         <v>3945699</v>
       </c>
     </row>
@@ -9977,7 +10585,7 @@
       <c r="E277" t="s">
         <v>650</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F277" s="41">
         <v>9542257</v>
       </c>
     </row>
@@ -9997,7 +10605,7 @@
       <c r="E278" t="s">
         <v>654</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F278" s="41">
         <v>28533258</v>
       </c>
     </row>
@@ -10017,7 +10625,7 @@
       <c r="E279" t="s">
         <v>658</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279" s="41">
         <v>8806916</v>
       </c>
     </row>
@@ -10037,7 +10645,7 @@
       <c r="E280" t="s">
         <v>483</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280" s="41">
         <v>11092825</v>
       </c>
     </row>
@@ -10057,7 +10665,7 @@
       <c r="E281" t="s">
         <v>20</v>
       </c>
-      <c r="F281" s="2">
+      <c r="F281" s="41">
         <v>8951626</v>
       </c>
     </row>
@@ -10077,7 +10685,7 @@
       <c r="E282" t="s">
         <v>663</v>
       </c>
-      <c r="F282" s="2">
+      <c r="F282" s="41">
         <v>1409399</v>
       </c>
     </row>
@@ -10097,7 +10705,7 @@
       <c r="E283" t="s">
         <v>71</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283" s="41">
         <v>18256221</v>
       </c>
     </row>
@@ -10117,7 +10725,7 @@
       <c r="E284" t="s">
         <v>165</v>
       </c>
-      <c r="F284" s="2">
+      <c r="F284" s="41">
         <v>8333979</v>
       </c>
     </row>
@@ -10137,7 +10745,7 @@
       <c r="E285" t="s">
         <v>668</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285" s="41">
         <v>25341315</v>
       </c>
     </row>
@@ -10157,7 +10765,7 @@
       <c r="E286" t="s">
         <v>670</v>
       </c>
-      <c r="F286" s="2">
+      <c r="F286" s="41">
         <v>15247191</v>
       </c>
     </row>
@@ -10177,7 +10785,7 @@
       <c r="E287" t="s">
         <v>78</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287" s="41">
         <v>13698359</v>
       </c>
     </row>
@@ -10197,7 +10805,7 @@
       <c r="E288" t="s">
         <v>674</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F288" s="41">
         <v>14679155</v>
       </c>
     </row>
@@ -10217,7 +10825,7 @@
       <c r="E289" t="s">
         <v>124</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289" s="41">
         <v>22392991</v>
       </c>
     </row>
@@ -10237,7 +10845,7 @@
       <c r="E290" t="s">
         <v>677</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290" s="41">
         <v>9669663</v>
       </c>
     </row>
@@ -10257,7 +10865,7 @@
       <c r="E291" t="s">
         <v>78</v>
       </c>
-      <c r="F291" s="2">
+      <c r="F291" s="41">
         <v>21068387</v>
       </c>
     </row>
@@ -10277,7 +10885,7 @@
       <c r="E292" t="s">
         <v>262</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292" s="41">
         <v>24587108</v>
       </c>
     </row>
@@ -10297,7 +10905,7 @@
       <c r="E293" t="s">
         <v>227</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293" s="41">
         <v>12817263</v>
       </c>
     </row>
@@ -10317,7 +10925,7 @@
       <c r="E294" t="s">
         <v>683</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F294" s="41">
         <v>20030668</v>
       </c>
     </row>
@@ -10337,7 +10945,7 @@
       <c r="E295" t="s">
         <v>686</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295" s="41">
         <v>2528301</v>
       </c>
     </row>
@@ -10357,7 +10965,7 @@
       <c r="E296" t="s">
         <v>689</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296" s="41">
         <v>23822669</v>
       </c>
     </row>
@@ -10377,7 +10985,7 @@
       <c r="E297" t="s">
         <v>523</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297" s="41">
         <v>19826399</v>
       </c>
     </row>
@@ -10397,7 +11005,7 @@
       <c r="E298" t="s">
         <v>692</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298" s="41">
         <v>11535625</v>
       </c>
     </row>
@@ -10417,7 +11025,7 @@
       <c r="E299" t="s">
         <v>694</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299" s="41">
         <v>1294718</v>
       </c>
     </row>
@@ -10437,7 +11045,7 @@
       <c r="E300" t="s">
         <v>697</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300" s="41">
         <v>14522770</v>
       </c>
     </row>
@@ -10457,7 +11065,7 @@
       <c r="E301" t="s">
         <v>179</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301" s="41">
         <v>17582218</v>
       </c>
     </row>
@@ -10477,7 +11085,7 @@
       <c r="E302" t="s">
         <v>238</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302" s="41">
         <v>12921328</v>
       </c>
     </row>
@@ -10497,7 +11105,7 @@
       <c r="E303" t="s">
         <v>144</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303" s="41">
         <v>27849110</v>
       </c>
     </row>
@@ -10517,7 +11125,7 @@
       <c r="E304" t="s">
         <v>313</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304" s="41">
         <v>11028544</v>
       </c>
     </row>
@@ -10537,7 +11145,7 @@
       <c r="E305" t="s">
         <v>705</v>
       </c>
-      <c r="F305" s="2">
+      <c r="F305" s="41">
         <v>8371418</v>
       </c>
     </row>
@@ -10557,7 +11165,7 @@
       <c r="E306" t="s">
         <v>708</v>
       </c>
-      <c r="F306" s="2">
+      <c r="F306" s="41">
         <v>18722259</v>
       </c>
     </row>
@@ -10577,7 +11185,7 @@
       <c r="E307" t="s">
         <v>712</v>
       </c>
-      <c r="F307" s="2">
+      <c r="F307" s="41">
         <v>14096918</v>
       </c>
     </row>
@@ -10597,7 +11205,7 @@
       <c r="E308" t="s">
         <v>714</v>
       </c>
-      <c r="F308" s="2">
+      <c r="F308" s="41">
         <v>4428937</v>
       </c>
     </row>
@@ -10617,7 +11225,7 @@
       <c r="E309" t="s">
         <v>716</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309" s="41">
         <v>28150032</v>
       </c>
     </row>
@@ -10637,7 +11245,7 @@
       <c r="E310" t="s">
         <v>27</v>
       </c>
-      <c r="F310" s="2">
+      <c r="F310" s="41">
         <v>5907018</v>
       </c>
     </row>
@@ -10657,7 +11265,7 @@
       <c r="E311" t="s">
         <v>720</v>
       </c>
-      <c r="F311" s="2">
+      <c r="F311" s="41">
         <v>13277875</v>
       </c>
     </row>
@@ -10677,7 +11285,7 @@
       <c r="E312" t="s">
         <v>723</v>
       </c>
-      <c r="F312" s="2">
+      <c r="F312" s="41">
         <v>27953685</v>
       </c>
     </row>
@@ -10697,7 +11305,7 @@
       <c r="E313" t="s">
         <v>292</v>
       </c>
-      <c r="F313" s="2">
+      <c r="F313" s="41">
         <v>2874589</v>
       </c>
     </row>
@@ -10717,7 +11325,7 @@
       <c r="E314" t="s">
         <v>727</v>
       </c>
-      <c r="F314" s="2">
+      <c r="F314" s="41">
         <v>11876173</v>
       </c>
     </row>
@@ -10737,7 +11345,7 @@
       <c r="E315" t="s">
         <v>730</v>
       </c>
-      <c r="F315" s="2">
+      <c r="F315" s="41">
         <v>24793015</v>
       </c>
     </row>
@@ -10757,7 +11365,7 @@
       <c r="E316" t="s">
         <v>733</v>
       </c>
-      <c r="F316" s="2">
+      <c r="F316" s="41">
         <v>14675772</v>
       </c>
     </row>
@@ -10777,7 +11385,7 @@
       <c r="E317" t="s">
         <v>45</v>
       </c>
-      <c r="F317" s="2">
+      <c r="F317" s="41">
         <v>5825532</v>
       </c>
     </row>
@@ -10797,7 +11405,7 @@
       <c r="E318" t="s">
         <v>292</v>
       </c>
-      <c r="F318" s="2">
+      <c r="F318" s="41">
         <v>26042303</v>
       </c>
     </row>
@@ -10817,7 +11425,7 @@
       <c r="E319" t="s">
         <v>24</v>
       </c>
-      <c r="F319" s="2">
+      <c r="F319" s="41">
         <v>4111446</v>
       </c>
     </row>
@@ -10837,7 +11445,7 @@
       <c r="E320" t="s">
         <v>136</v>
       </c>
-      <c r="F320" s="2">
+      <c r="F320" s="41">
         <v>5491987</v>
       </c>
     </row>
@@ -10857,7 +11465,7 @@
       <c r="E321" t="s">
         <v>739</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F321" s="41">
         <v>20111669</v>
       </c>
     </row>
@@ -10877,7 +11485,7 @@
       <c r="E322" t="s">
         <v>742</v>
       </c>
-      <c r="F322" s="2">
+      <c r="F322" s="41">
         <v>6990556</v>
       </c>
     </row>
@@ -10897,7 +11505,7 @@
       <c r="E323" t="s">
         <v>171</v>
       </c>
-      <c r="F323" s="2">
+      <c r="F323" s="41">
         <v>25554222</v>
       </c>
     </row>
@@ -10917,7 +11525,7 @@
       <c r="E324" t="s">
         <v>747</v>
       </c>
-      <c r="F324" s="2">
+      <c r="F324" s="41">
         <v>13255840</v>
       </c>
     </row>
@@ -10937,7 +11545,7 @@
       <c r="E325" t="s">
         <v>749</v>
       </c>
-      <c r="F325" s="2">
+      <c r="F325" s="41">
         <v>16113964</v>
       </c>
     </row>
@@ -10957,7 +11565,7 @@
       <c r="E326" t="s">
         <v>171</v>
       </c>
-      <c r="F326" s="2">
+      <c r="F326" s="41">
         <v>28850148</v>
       </c>
     </row>
@@ -10977,7 +11585,7 @@
       <c r="E327" t="s">
         <v>754</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327" s="41">
         <v>8006013</v>
       </c>
     </row>
@@ -10997,7 +11605,7 @@
       <c r="E328" t="s">
         <v>757</v>
       </c>
-      <c r="F328" s="2">
+      <c r="F328" s="41">
         <v>1251096</v>
       </c>
     </row>
@@ -11017,7 +11625,7 @@
       <c r="E329" t="s">
         <v>523</v>
       </c>
-      <c r="F329" s="2">
+      <c r="F329" s="41">
         <v>10630173</v>
       </c>
     </row>
@@ -11037,7 +11645,7 @@
       <c r="E330" t="s">
         <v>244</v>
       </c>
-      <c r="F330" s="2">
+      <c r="F330" s="41">
         <v>17892133</v>
       </c>
     </row>
@@ -11057,7 +11665,7 @@
       <c r="E331" t="s">
         <v>762</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F331" s="41">
         <v>18600043</v>
       </c>
     </row>
@@ -11077,7 +11685,7 @@
       <c r="E332" t="s">
         <v>764</v>
       </c>
-      <c r="F332" s="2">
+      <c r="F332" s="41">
         <v>9335440</v>
       </c>
     </row>
@@ -11097,7 +11705,7 @@
       <c r="E333" t="s">
         <v>433</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333" s="41">
         <v>12970226</v>
       </c>
     </row>
@@ -11117,7 +11725,7 @@
       <c r="E334" t="s">
         <v>98</v>
       </c>
-      <c r="F334" s="2">
+      <c r="F334" s="41">
         <v>5525655</v>
       </c>
     </row>
@@ -11137,7 +11745,7 @@
       <c r="E335" t="s">
         <v>171</v>
       </c>
-      <c r="F335" s="2">
+      <c r="F335" s="41">
         <v>17578917</v>
       </c>
     </row>
@@ -11157,7 +11765,7 @@
       <c r="E336" t="s">
         <v>292</v>
       </c>
-      <c r="F336" s="2">
+      <c r="F336" s="41">
         <v>7283344</v>
       </c>
     </row>
@@ -11177,7 +11785,7 @@
       <c r="E337" t="s">
         <v>773</v>
       </c>
-      <c r="F337" s="2">
+      <c r="F337" s="41">
         <v>14767235</v>
       </c>
     </row>
@@ -11197,7 +11805,7 @@
       <c r="E338" t="s">
         <v>521</v>
       </c>
-      <c r="F338" s="2">
+      <c r="F338" s="41">
         <v>9350999</v>
       </c>
     </row>
@@ -11217,7 +11825,7 @@
       <c r="E339" t="s">
         <v>778</v>
       </c>
-      <c r="F339" s="2">
+      <c r="F339" s="41">
         <v>18566702</v>
       </c>
     </row>
@@ -11237,7 +11845,7 @@
       <c r="E340" t="s">
         <v>782</v>
       </c>
-      <c r="F340" s="2">
+      <c r="F340" s="41">
         <v>13518268</v>
       </c>
     </row>
@@ -11257,7 +11865,7 @@
       <c r="E341" t="s">
         <v>785</v>
       </c>
-      <c r="F341" s="2">
+      <c r="F341" s="41">
         <v>29279721</v>
       </c>
     </row>
@@ -11277,7 +11885,7 @@
       <c r="E342" t="s">
         <v>788</v>
       </c>
-      <c r="F342" s="2">
+      <c r="F342" s="41">
         <v>29543557</v>
       </c>
     </row>
@@ -11297,7 +11905,7 @@
       <c r="E343" t="s">
         <v>458</v>
       </c>
-      <c r="F343" s="2">
+      <c r="F343" s="41">
         <v>14748340</v>
       </c>
     </row>
@@ -11317,7 +11925,7 @@
       <c r="E344" t="s">
         <v>20</v>
       </c>
-      <c r="F344" s="2">
+      <c r="F344" s="41">
         <v>15758198</v>
       </c>
     </row>
@@ -11337,7 +11945,7 @@
       <c r="E345" t="s">
         <v>219</v>
       </c>
-      <c r="F345" s="2">
+      <c r="F345" s="41">
         <v>10350934</v>
       </c>
     </row>
@@ -11357,7 +11965,7 @@
       <c r="E346" t="s">
         <v>795</v>
       </c>
-      <c r="F346" s="2">
+      <c r="F346" s="41">
         <v>25155209</v>
       </c>
     </row>
@@ -11377,7 +11985,7 @@
       <c r="E347" t="s">
         <v>171</v>
       </c>
-      <c r="F347" s="2">
+      <c r="F347" s="41">
         <v>8338303</v>
       </c>
     </row>
@@ -11397,7 +12005,7 @@
       <c r="E348" t="s">
         <v>124</v>
       </c>
-      <c r="F348" s="2">
+      <c r="F348" s="41">
         <v>6929279</v>
       </c>
     </row>
@@ -11417,7 +12025,7 @@
       <c r="E349" t="s">
         <v>800</v>
       </c>
-      <c r="F349" s="2">
+      <c r="F349" s="41">
         <v>26883941</v>
       </c>
     </row>
@@ -11437,7 +12045,7 @@
       <c r="E350" t="s">
         <v>171</v>
       </c>
-      <c r="F350" s="2">
+      <c r="F350" s="41">
         <v>3009050</v>
       </c>
     </row>
@@ -11457,7 +12065,7 @@
       <c r="E351" t="s">
         <v>288</v>
       </c>
-      <c r="F351" s="2">
+      <c r="F351" s="41">
         <v>28052963</v>
       </c>
     </row>
@@ -11477,7 +12085,7 @@
       <c r="E352" t="s">
         <v>805</v>
       </c>
-      <c r="F352" s="2">
+      <c r="F352" s="41">
         <v>11373926</v>
       </c>
     </row>
@@ -11497,7 +12105,7 @@
       <c r="E353" t="s">
         <v>808</v>
       </c>
-      <c r="F353" s="2">
+      <c r="F353" s="41">
         <v>8919656</v>
       </c>
     </row>
@@ -11517,7 +12125,7 @@
       <c r="E354" t="s">
         <v>171</v>
       </c>
-      <c r="F354" s="2">
+      <c r="F354" s="41">
         <v>12124423</v>
       </c>
     </row>
@@ -11537,7 +12145,7 @@
       <c r="E355" t="s">
         <v>812</v>
       </c>
-      <c r="F355" s="2">
+      <c r="F355" s="41">
         <v>18709332</v>
       </c>
     </row>
@@ -11557,7 +12165,7 @@
       <c r="E356" t="s">
         <v>50</v>
       </c>
-      <c r="F356" s="2">
+      <c r="F356" s="41">
         <v>24866152</v>
       </c>
     </row>
@@ -11577,7 +12185,7 @@
       <c r="E357" t="s">
         <v>436</v>
       </c>
-      <c r="F357" s="2">
+      <c r="F357" s="41">
         <v>27040325</v>
       </c>
     </row>
@@ -11597,7 +12205,7 @@
       <c r="E358" t="s">
         <v>816</v>
       </c>
-      <c r="F358" s="2">
+      <c r="F358" s="41">
         <v>10818215</v>
       </c>
     </row>
@@ -11617,7 +12225,7 @@
       <c r="E359" t="s">
         <v>42</v>
       </c>
-      <c r="F359" s="2">
+      <c r="F359" s="41">
         <v>20008450</v>
       </c>
     </row>
@@ -11637,7 +12245,7 @@
       <c r="E360" t="s">
         <v>819</v>
       </c>
-      <c r="F360" s="2">
+      <c r="F360" s="41">
         <v>12913742</v>
       </c>
     </row>
@@ -11657,7 +12265,7 @@
       <c r="E361" t="s">
         <v>122</v>
       </c>
-      <c r="F361" s="2">
+      <c r="F361" s="41">
         <v>16823845</v>
       </c>
     </row>
@@ -11677,7 +12285,7 @@
       <c r="E362" t="s">
         <v>825</v>
       </c>
-      <c r="F362" s="2">
+      <c r="F362" s="41">
         <v>8899379</v>
       </c>
     </row>
@@ -11697,7 +12305,7 @@
       <c r="E363" t="s">
         <v>292</v>
       </c>
-      <c r="F363" s="2">
+      <c r="F363" s="41">
         <v>17008739</v>
       </c>
     </row>
@@ -11717,7 +12325,7 @@
       <c r="E364" t="s">
         <v>458</v>
       </c>
-      <c r="F364" s="2">
+      <c r="F364" s="41">
         <v>1456427</v>
       </c>
     </row>
@@ -11737,7 +12345,7 @@
       <c r="E365" t="s">
         <v>831</v>
       </c>
-      <c r="F365" s="2">
+      <c r="F365" s="41">
         <v>15490784</v>
       </c>
     </row>
@@ -11757,7 +12365,7 @@
       <c r="E366" t="s">
         <v>835</v>
       </c>
-      <c r="F366" s="2">
+      <c r="F366" s="41">
         <v>18824466</v>
       </c>
     </row>
@@ -11777,7 +12385,7 @@
       <c r="E367" t="s">
         <v>837</v>
       </c>
-      <c r="F367" s="2">
+      <c r="F367" s="41">
         <v>1851250</v>
       </c>
     </row>
@@ -11797,7 +12405,7 @@
       <c r="E368" t="s">
         <v>839</v>
       </c>
-      <c r="F368" s="2">
+      <c r="F368" s="41">
         <v>4814508</v>
       </c>
     </row>
@@ -11817,7 +12425,7 @@
       <c r="E369" t="s">
         <v>840</v>
       </c>
-      <c r="F369" s="2">
+      <c r="F369" s="41">
         <v>16794546</v>
       </c>
     </row>
@@ -11837,7 +12445,7 @@
       <c r="E370" t="s">
         <v>523</v>
       </c>
-      <c r="F370" s="2">
+      <c r="F370" s="41">
         <v>26841195</v>
       </c>
     </row>
@@ -11857,7 +12465,7 @@
       <c r="E371" t="s">
         <v>110</v>
       </c>
-      <c r="F371" s="2">
+      <c r="F371" s="41">
         <v>9125130</v>
       </c>
     </row>
@@ -11877,7 +12485,7 @@
       <c r="E372" t="s">
         <v>351</v>
       </c>
-      <c r="F372" s="2">
+      <c r="F372" s="41">
         <v>1428817</v>
       </c>
     </row>
@@ -11897,7 +12505,7 @@
       <c r="E373" t="s">
         <v>421</v>
       </c>
-      <c r="F373" s="2">
+      <c r="F373" s="41">
         <v>22583042</v>
       </c>
     </row>
@@ -11917,7 +12525,7 @@
       <c r="E374" t="s">
         <v>848</v>
       </c>
-      <c r="F374" s="2">
+      <c r="F374" s="41">
         <v>6219964</v>
       </c>
     </row>
@@ -11937,7 +12545,7 @@
       <c r="E375" t="s">
         <v>851</v>
       </c>
-      <c r="F375" s="2">
+      <c r="F375" s="41">
         <v>21550904</v>
       </c>
     </row>
@@ -11957,7 +12565,7 @@
       <c r="E376" t="s">
         <v>20</v>
       </c>
-      <c r="F376" s="2">
+      <c r="F376" s="41">
         <v>3513774</v>
       </c>
     </row>
@@ -11977,7 +12585,7 @@
       <c r="E377" t="s">
         <v>856</v>
       </c>
-      <c r="F377" s="2">
+      <c r="F377" s="41">
         <v>29705469</v>
       </c>
     </row>
@@ -11997,7 +12605,7 @@
       <c r="E378" t="s">
         <v>859</v>
       </c>
-      <c r="F378" s="2">
+      <c r="F378" s="41">
         <v>14987007</v>
       </c>
     </row>
@@ -12017,7 +12625,7 @@
       <c r="E379" t="s">
         <v>862</v>
       </c>
-      <c r="F379" s="2">
+      <c r="F379" s="41">
         <v>23616993</v>
       </c>
     </row>
@@ -12037,7 +12645,7 @@
       <c r="E380" t="s">
         <v>663</v>
       </c>
-      <c r="F380" s="2">
+      <c r="F380" s="41">
         <v>8422838</v>
       </c>
     </row>
@@ -12057,7 +12665,7 @@
       <c r="E381" t="s">
         <v>868</v>
       </c>
-      <c r="F381" s="2">
+      <c r="F381" s="41">
         <v>15699892</v>
       </c>
     </row>
@@ -12077,7 +12685,7 @@
       <c r="E382" t="s">
         <v>12</v>
       </c>
-      <c r="F382" s="2">
+      <c r="F382" s="41">
         <v>6122734</v>
       </c>
     </row>
@@ -12097,7 +12705,7 @@
       <c r="E383" t="s">
         <v>871</v>
       </c>
-      <c r="F383" s="2">
+      <c r="F383" s="41">
         <v>6594674</v>
       </c>
     </row>
@@ -12117,7 +12725,7 @@
       <c r="E384" t="s">
         <v>873</v>
       </c>
-      <c r="F384" s="2">
+      <c r="F384" s="41">
         <v>17955312</v>
       </c>
     </row>
@@ -12137,7 +12745,7 @@
       <c r="E385" t="s">
         <v>875</v>
       </c>
-      <c r="F385" s="2">
+      <c r="F385" s="41">
         <v>12931642</v>
       </c>
     </row>
@@ -12157,7 +12765,7 @@
       <c r="E386" t="s">
         <v>17</v>
       </c>
-      <c r="F386" s="2">
+      <c r="F386" s="41">
         <v>6880738</v>
       </c>
     </row>
@@ -12177,7 +12785,7 @@
       <c r="E387" t="s">
         <v>878</v>
       </c>
-      <c r="F387" s="2">
+      <c r="F387" s="41">
         <v>21076491</v>
       </c>
     </row>
@@ -12197,7 +12805,7 @@
       <c r="E388" t="s">
         <v>354</v>
       </c>
-      <c r="F388" s="2">
+      <c r="F388" s="41">
         <v>7854891</v>
       </c>
     </row>
@@ -12217,7 +12825,7 @@
       <c r="E389" t="s">
         <v>883</v>
       </c>
-      <c r="F389" s="2">
+      <c r="F389" s="41">
         <v>14508094</v>
       </c>
     </row>
@@ -12237,7 +12845,7 @@
       <c r="E390" t="s">
         <v>20</v>
       </c>
-      <c r="F390" s="2">
+      <c r="F390" s="41">
         <v>3827015</v>
       </c>
     </row>
@@ -12257,7 +12865,7 @@
       <c r="E391" t="s">
         <v>888</v>
       </c>
-      <c r="F391" s="2">
+      <c r="F391" s="41">
         <v>6410460</v>
       </c>
     </row>
@@ -12277,7 +12885,7 @@
       <c r="E392" t="s">
         <v>297</v>
       </c>
-      <c r="F392" s="2">
+      <c r="F392" s="41">
         <v>25048406</v>
       </c>
     </row>
@@ -12297,7 +12905,7 @@
       <c r="E393" t="s">
         <v>20</v>
       </c>
-      <c r="F393" s="2">
+      <c r="F393" s="41">
         <v>24480073</v>
       </c>
     </row>
@@ -12317,7 +12925,7 @@
       <c r="E394" t="s">
         <v>893</v>
       </c>
-      <c r="F394" s="2">
+      <c r="F394" s="41">
         <v>16110100</v>
       </c>
     </row>
@@ -12337,7 +12945,7 @@
       <c r="E395" t="s">
         <v>436</v>
       </c>
-      <c r="F395" s="2">
+      <c r="F395" s="41">
         <v>27641594</v>
       </c>
     </row>
@@ -12357,7 +12965,7 @@
       <c r="E396" t="s">
         <v>897</v>
       </c>
-      <c r="F396" s="2">
+      <c r="F396" s="41">
         <v>8787793</v>
       </c>
     </row>
@@ -12377,7 +12985,7 @@
       <c r="E397" t="s">
         <v>899</v>
       </c>
-      <c r="F397" s="2">
+      <c r="F397" s="41">
         <v>26573992</v>
       </c>
     </row>
@@ -12397,7 +13005,7 @@
       <c r="E398" t="s">
         <v>903</v>
       </c>
-      <c r="F398" s="2">
+      <c r="F398" s="41">
         <v>23862049</v>
       </c>
     </row>
@@ -12417,7 +13025,7 @@
       <c r="E399" t="s">
         <v>20</v>
       </c>
-      <c r="F399" s="2">
+      <c r="F399" s="41">
         <v>11461279</v>
       </c>
     </row>
@@ -12437,7 +13045,7 @@
       <c r="E400" t="s">
         <v>147</v>
       </c>
-      <c r="F400" s="2">
+      <c r="F400" s="41">
         <v>12752401</v>
       </c>
     </row>
@@ -12457,7 +13065,7 @@
       <c r="E401" t="s">
         <v>165</v>
       </c>
-      <c r="F401" s="2">
+      <c r="F401" s="41">
         <v>4344739</v>
       </c>
     </row>
@@ -12477,7 +13085,7 @@
       <c r="E402" t="s">
         <v>720</v>
       </c>
-      <c r="F402" s="2">
+      <c r="F402" s="41">
         <v>13970165</v>
       </c>
     </row>
@@ -12497,7 +13105,7 @@
       <c r="E403" t="s">
         <v>171</v>
       </c>
-      <c r="F403" s="2">
+      <c r="F403" s="41">
         <v>6527546</v>
       </c>
     </row>
@@ -12517,7 +13125,7 @@
       <c r="E404" t="s">
         <v>915</v>
       </c>
-      <c r="F404" s="2">
+      <c r="F404" s="41">
         <v>24532171</v>
       </c>
     </row>
@@ -12537,7 +13145,7 @@
       <c r="E405" t="s">
         <v>918</v>
       </c>
-      <c r="F405" s="2">
+      <c r="F405" s="41">
         <v>27789403</v>
       </c>
     </row>
@@ -12557,7 +13165,7 @@
       <c r="E406" t="s">
         <v>921</v>
       </c>
-      <c r="F406" s="2">
+      <c r="F406" s="41">
         <v>1289776</v>
       </c>
     </row>
@@ -12577,7 +13185,7 @@
       <c r="E407" t="s">
         <v>351</v>
       </c>
-      <c r="F407" s="2">
+      <c r="F407" s="41">
         <v>23903081</v>
       </c>
     </row>
@@ -12597,7 +13205,7 @@
       <c r="E408" t="s">
         <v>925</v>
       </c>
-      <c r="F408" s="2">
+      <c r="F408" s="41">
         <v>16395689</v>
       </c>
     </row>
@@ -12617,7 +13225,7 @@
       <c r="E409" t="s">
         <v>929</v>
       </c>
-      <c r="F409" s="2">
+      <c r="F409" s="41">
         <v>28215926</v>
       </c>
     </row>
@@ -12637,7 +13245,7 @@
       <c r="E410" t="s">
         <v>124</v>
       </c>
-      <c r="F410" s="2">
+      <c r="F410" s="41">
         <v>4549978</v>
       </c>
     </row>
@@ -12657,7 +13265,7 @@
       <c r="E411" t="s">
         <v>147</v>
       </c>
-      <c r="F411" s="2">
+      <c r="F411" s="41">
         <v>10764384</v>
       </c>
     </row>
@@ -12677,7 +13285,7 @@
       <c r="E412" t="s">
         <v>147</v>
       </c>
-      <c r="F412" s="2">
+      <c r="F412" s="41">
         <v>1123181</v>
       </c>
     </row>
@@ -12697,7 +13305,7 @@
       <c r="E413" t="s">
         <v>122</v>
       </c>
-      <c r="F413" s="2">
+      <c r="F413" s="41">
         <v>9057852</v>
       </c>
     </row>
@@ -12717,7 +13325,7 @@
       <c r="E414" t="s">
         <v>937</v>
       </c>
-      <c r="F414" s="2">
+      <c r="F414" s="41">
         <v>23286265</v>
       </c>
     </row>
@@ -12737,7 +13345,7 @@
       <c r="E415" t="s">
         <v>20</v>
       </c>
-      <c r="F415" s="2">
+      <c r="F415" s="41">
         <v>26726909</v>
       </c>
     </row>
@@ -12757,7 +13365,7 @@
       <c r="E416" t="s">
         <v>219</v>
       </c>
-      <c r="F416" s="2">
+      <c r="F416" s="41">
         <v>13672477</v>
       </c>
     </row>
@@ -12777,7 +13385,7 @@
       <c r="E417" t="s">
         <v>942</v>
       </c>
-      <c r="F417" s="2">
+      <c r="F417" s="41">
         <v>27381271</v>
       </c>
     </row>
@@ -12797,7 +13405,7 @@
       <c r="E418" t="s">
         <v>421</v>
       </c>
-      <c r="F418" s="2">
+      <c r="F418" s="41">
         <v>4075082</v>
       </c>
     </row>
@@ -12817,7 +13425,7 @@
       <c r="E419" t="s">
         <v>20</v>
       </c>
-      <c r="F419" s="2">
+      <c r="F419" s="41">
         <v>16214764</v>
       </c>
     </row>
@@ -12837,7 +13445,7 @@
       <c r="E420" t="s">
         <v>948</v>
       </c>
-      <c r="F420" s="2">
+      <c r="F420" s="41">
         <v>26571423</v>
       </c>
     </row>
@@ -12857,7 +13465,7 @@
       <c r="E421" t="s">
         <v>951</v>
       </c>
-      <c r="F421" s="2">
+      <c r="F421" s="41">
         <v>16178870</v>
       </c>
     </row>
@@ -12877,7 +13485,7 @@
       <c r="E422" t="s">
         <v>436</v>
       </c>
-      <c r="F422" s="2">
+      <c r="F422" s="41">
         <v>2024767</v>
       </c>
     </row>
@@ -12897,7 +13505,7 @@
       <c r="E423" t="s">
         <v>956</v>
       </c>
-      <c r="F423" s="2">
+      <c r="F423" s="41">
         <v>13804702</v>
       </c>
     </row>
@@ -12917,7 +13525,7 @@
       <c r="E424" t="s">
         <v>959</v>
       </c>
-      <c r="F424" s="2">
+      <c r="F424" s="41">
         <v>17658485</v>
       </c>
     </row>
@@ -12937,7 +13545,7 @@
       <c r="E425" t="s">
         <v>153</v>
       </c>
-      <c r="F425" s="2">
+      <c r="F425" s="41">
         <v>16668697</v>
       </c>
     </row>
@@ -12957,7 +13565,7 @@
       <c r="E426" t="s">
         <v>963</v>
       </c>
-      <c r="F426" s="2">
+      <c r="F426" s="41">
         <v>26384971</v>
       </c>
     </row>
@@ -12977,7 +13585,7 @@
       <c r="E427" t="s">
         <v>966</v>
       </c>
-      <c r="F427" s="2">
+      <c r="F427" s="41">
         <v>23851522</v>
       </c>
     </row>
@@ -12997,7 +13605,7 @@
       <c r="E428" t="s">
         <v>969</v>
       </c>
-      <c r="F428" s="2">
+      <c r="F428" s="41">
         <v>18580612</v>
       </c>
     </row>
@@ -13017,7 +13625,7 @@
       <c r="E429" t="s">
         <v>971</v>
       </c>
-      <c r="F429" s="2">
+      <c r="F429" s="41">
         <v>7083883</v>
       </c>
     </row>
@@ -13037,7 +13645,7 @@
       <c r="E430" t="s">
         <v>974</v>
       </c>
-      <c r="F430" s="2">
+      <c r="F430" s="41">
         <v>28263686</v>
       </c>
     </row>
@@ -13057,7 +13665,7 @@
       <c r="E431" t="s">
         <v>351</v>
       </c>
-      <c r="F431" s="2">
+      <c r="F431" s="41">
         <v>2261058</v>
       </c>
     </row>
@@ -13077,7 +13685,7 @@
       <c r="E432" t="s">
         <v>351</v>
       </c>
-      <c r="F432" s="2">
+      <c r="F432" s="41">
         <v>5027584</v>
       </c>
     </row>
@@ -13097,7 +13705,7 @@
       <c r="E433" t="s">
         <v>978</v>
       </c>
-      <c r="F433" s="2">
+      <c r="F433" s="41">
         <v>8815875</v>
       </c>
     </row>
@@ -13117,7 +13725,7 @@
       <c r="E434" t="s">
         <v>20</v>
       </c>
-      <c r="F434" s="2">
+      <c r="F434" s="41">
         <v>5104772</v>
       </c>
     </row>
@@ -13137,7 +13745,7 @@
       <c r="E435" t="s">
         <v>921</v>
       </c>
-      <c r="F435" s="2">
+      <c r="F435" s="41">
         <v>6370282</v>
       </c>
     </row>
@@ -13157,7 +13765,7 @@
       <c r="E436" t="s">
         <v>983</v>
       </c>
-      <c r="F436" s="2">
+      <c r="F436" s="41">
         <v>29822078</v>
       </c>
     </row>
@@ -13177,7 +13785,7 @@
       <c r="E437" t="s">
         <v>985</v>
       </c>
-      <c r="F437" s="2">
+      <c r="F437" s="41">
         <v>20086188</v>
       </c>
     </row>
@@ -13197,7 +13805,7 @@
       <c r="E438" t="s">
         <v>988</v>
       </c>
-      <c r="F438" s="2">
+      <c r="F438" s="41">
         <v>7215040</v>
       </c>
     </row>
@@ -13217,7 +13825,7 @@
       <c r="E439" t="s">
         <v>990</v>
       </c>
-      <c r="F439" s="2">
+      <c r="F439" s="41">
         <v>13695868</v>
       </c>
     </row>
@@ -13237,7 +13845,7 @@
       <c r="E440" t="s">
         <v>24</v>
       </c>
-      <c r="F440" s="2">
+      <c r="F440" s="41">
         <v>22192680</v>
       </c>
     </row>
@@ -13257,7 +13865,7 @@
       <c r="E441" t="s">
         <v>994</v>
       </c>
-      <c r="F441" s="2">
+      <c r="F441" s="41">
         <v>9776822</v>
       </c>
     </row>
@@ -13277,7 +13885,7 @@
       <c r="E442" t="s">
         <v>996</v>
       </c>
-      <c r="F442" s="2">
+      <c r="F442" s="41">
         <v>4960730</v>
       </c>
     </row>
@@ -13297,7 +13905,7 @@
       <c r="E443" t="s">
         <v>262</v>
       </c>
-      <c r="F443" s="2">
+      <c r="F443" s="41">
         <v>16602528</v>
       </c>
     </row>
@@ -13317,7 +13925,7 @@
       <c r="E444" t="s">
         <v>1000</v>
       </c>
-      <c r="F444" s="2">
+      <c r="F444" s="41">
         <v>22836363</v>
       </c>
     </row>
@@ -13337,7 +13945,7 @@
       <c r="E445" t="s">
         <v>1002</v>
       </c>
-      <c r="F445" s="2">
+      <c r="F445" s="41">
         <v>25749178</v>
       </c>
     </row>
@@ -13357,7 +13965,7 @@
       <c r="E446" t="s">
         <v>20</v>
       </c>
-      <c r="F446" s="2">
+      <c r="F446" s="41">
         <v>21526563</v>
       </c>
     </row>
@@ -13377,7 +13985,7 @@
       <c r="E447" t="s">
         <v>1006</v>
       </c>
-      <c r="F447" s="2">
+      <c r="F447" s="41">
         <v>8766500</v>
       </c>
     </row>
@@ -13397,7 +14005,7 @@
       <c r="E448" t="s">
         <v>1009</v>
       </c>
-      <c r="F448" s="2">
+      <c r="F448" s="41">
         <v>4282271</v>
       </c>
     </row>
@@ -13417,7 +14025,7 @@
       <c r="E449" t="s">
         <v>421</v>
       </c>
-      <c r="F449" s="2">
+      <c r="F449" s="41">
         <v>10510162</v>
       </c>
     </row>
@@ -13437,7 +14045,7 @@
       <c r="E450" t="s">
         <v>1012</v>
       </c>
-      <c r="F450" s="2">
+      <c r="F450" s="41">
         <v>25669170</v>
       </c>
     </row>
@@ -13457,7 +14065,7 @@
       <c r="E451" t="s">
         <v>247</v>
       </c>
-      <c r="F451" s="2">
+      <c r="F451" s="41">
         <v>12215240</v>
       </c>
     </row>
@@ -13477,7 +14085,7 @@
       <c r="E452" t="s">
         <v>24</v>
       </c>
-      <c r="F452" s="2">
+      <c r="F452" s="41">
         <v>5202724</v>
       </c>
     </row>
@@ -13497,7 +14105,7 @@
       <c r="E453" t="s">
         <v>708</v>
       </c>
-      <c r="F453" s="2">
+      <c r="F453" s="41">
         <v>5938749</v>
       </c>
     </row>
@@ -13517,7 +14125,7 @@
       <c r="E454" t="s">
         <v>171</v>
       </c>
-      <c r="F454" s="2">
+      <c r="F454" s="41">
         <v>17226374</v>
       </c>
     </row>
@@ -13537,7 +14145,7 @@
       <c r="E455" t="s">
         <v>110</v>
       </c>
-      <c r="F455" s="2">
+      <c r="F455" s="41">
         <v>2636344</v>
       </c>
     </row>
@@ -13557,7 +14165,7 @@
       <c r="E456" t="s">
         <v>147</v>
       </c>
-      <c r="F456" s="2">
+      <c r="F456" s="41">
         <v>28238481</v>
       </c>
     </row>
@@ -13577,7 +14185,7 @@
       <c r="E457" t="s">
         <v>24</v>
       </c>
-      <c r="F457" s="2">
+      <c r="F457" s="41">
         <v>17613266</v>
       </c>
     </row>
@@ -13597,7 +14205,7 @@
       <c r="E458" t="s">
         <v>292</v>
       </c>
-      <c r="F458" s="2">
+      <c r="F458" s="41">
         <v>22185193</v>
       </c>
     </row>
@@ -13617,7 +14225,7 @@
       <c r="E459" t="s">
         <v>1027</v>
       </c>
-      <c r="F459" s="2">
+      <c r="F459" s="41">
         <v>29384197</v>
       </c>
     </row>
@@ -13637,7 +14245,7 @@
       <c r="E460" t="s">
         <v>78</v>
       </c>
-      <c r="F460" s="2">
+      <c r="F460" s="41">
         <v>9859058</v>
       </c>
     </row>
@@ -13657,7 +14265,7 @@
       <c r="E461" t="s">
         <v>517</v>
       </c>
-      <c r="F461" s="2">
+      <c r="F461" s="41">
         <v>27781045</v>
       </c>
     </row>
@@ -13677,7 +14285,7 @@
       <c r="E462" t="s">
         <v>1034</v>
       </c>
-      <c r="F462" s="2">
+      <c r="F462" s="41">
         <v>2330763</v>
       </c>
     </row>
@@ -13697,7 +14305,7 @@
       <c r="E463" t="s">
         <v>171</v>
       </c>
-      <c r="F463" s="2">
+      <c r="F463" s="41">
         <v>17661679</v>
       </c>
     </row>
@@ -13717,7 +14325,7 @@
       <c r="E464" t="s">
         <v>873</v>
       </c>
-      <c r="F464" s="2">
+      <c r="F464" s="41">
         <v>7190141</v>
       </c>
     </row>
@@ -13737,7 +14345,7 @@
       <c r="E465" t="s">
         <v>805</v>
       </c>
-      <c r="F465" s="2">
+      <c r="F465" s="41">
         <v>22732139</v>
       </c>
     </row>
@@ -13757,7 +14365,7 @@
       <c r="E466" t="s">
         <v>1042</v>
       </c>
-      <c r="F466" s="2">
+      <c r="F466" s="41">
         <v>29207684</v>
       </c>
     </row>
@@ -13777,7 +14385,7 @@
       <c r="E467" t="s">
         <v>83</v>
       </c>
-      <c r="F467" s="2">
+      <c r="F467" s="41">
         <v>4781818</v>
       </c>
     </row>
@@ -13797,7 +14405,7 @@
       <c r="E468" t="s">
         <v>171</v>
       </c>
-      <c r="F468" s="2">
+      <c r="F468" s="41">
         <v>6804760</v>
       </c>
     </row>
@@ -13817,7 +14425,7 @@
       <c r="E469" t="s">
         <v>1047</v>
       </c>
-      <c r="F469" s="2">
+      <c r="F469" s="41">
         <v>11025389</v>
       </c>
     </row>
@@ -13837,7 +14445,7 @@
       <c r="E470" t="s">
         <v>1050</v>
       </c>
-      <c r="F470" s="2">
+      <c r="F470" s="41">
         <v>1070470</v>
       </c>
     </row>
@@ -13857,7 +14465,7 @@
       <c r="E471" t="s">
         <v>171</v>
       </c>
-      <c r="F471" s="2">
+      <c r="F471" s="41">
         <v>10417069</v>
       </c>
     </row>
@@ -13877,7 +14485,7 @@
       <c r="E472" t="s">
         <v>1054</v>
       </c>
-      <c r="F472" s="2">
+      <c r="F472" s="41">
         <v>20107358</v>
       </c>
     </row>
@@ -13897,7 +14505,7 @@
       <c r="E473" t="s">
         <v>1058</v>
       </c>
-      <c r="F473" s="2">
+      <c r="F473" s="41">
         <v>20574599</v>
       </c>
     </row>
@@ -13917,7 +14525,7 @@
       <c r="E474" t="s">
         <v>351</v>
       </c>
-      <c r="F474" s="2">
+      <c r="F474" s="41">
         <v>20207969</v>
       </c>
     </row>
@@ -13937,7 +14545,7 @@
       <c r="E475" t="s">
         <v>1062</v>
       </c>
-      <c r="F475" s="2">
+      <c r="F475" s="41">
         <v>25562917</v>
       </c>
     </row>
@@ -13957,7 +14565,7 @@
       <c r="E476" t="s">
         <v>421</v>
       </c>
-      <c r="F476" s="2">
+      <c r="F476" s="41">
         <v>24881703</v>
       </c>
     </row>
@@ -13977,7 +14585,7 @@
       <c r="E477" t="s">
         <v>171</v>
       </c>
-      <c r="F477" s="2">
+      <c r="F477" s="41">
         <v>17803823</v>
       </c>
     </row>
@@ -13997,7 +14605,7 @@
       <c r="E478" t="s">
         <v>238</v>
       </c>
-      <c r="F478" s="2">
+      <c r="F478" s="41">
         <v>6920218</v>
       </c>
     </row>
@@ -14017,7 +14625,7 @@
       <c r="E479" t="s">
         <v>238</v>
       </c>
-      <c r="F479" s="2">
+      <c r="F479" s="41">
         <v>7853722</v>
       </c>
     </row>
@@ -14037,7 +14645,7 @@
       <c r="E480" t="s">
         <v>1070</v>
       </c>
-      <c r="F480" s="2">
+      <c r="F480" s="41">
         <v>25434422</v>
       </c>
     </row>
@@ -14057,7 +14665,7 @@
       <c r="E481" t="s">
         <v>171</v>
       </c>
-      <c r="F481" s="2">
+      <c r="F481" s="41">
         <v>26821920</v>
       </c>
     </row>
@@ -14077,7 +14685,7 @@
       <c r="E482" t="s">
         <v>1075</v>
       </c>
-      <c r="F482" s="2">
+      <c r="F482" s="41">
         <v>27439057</v>
       </c>
     </row>
@@ -14097,7 +14705,7 @@
       <c r="E483" t="s">
         <v>1078</v>
       </c>
-      <c r="F483" s="2">
+      <c r="F483" s="41">
         <v>18467487</v>
       </c>
     </row>
@@ -14117,7 +14725,7 @@
       <c r="E484" t="s">
         <v>402</v>
       </c>
-      <c r="F484" s="2">
+      <c r="F484" s="41">
         <v>12666386</v>
       </c>
     </row>
@@ -14137,7 +14745,7 @@
       <c r="E485" t="s">
         <v>104</v>
       </c>
-      <c r="F485" s="2">
+      <c r="F485" s="41">
         <v>19299711</v>
       </c>
     </row>
@@ -14157,7 +14765,7 @@
       <c r="E486" t="s">
         <v>1083</v>
       </c>
-      <c r="F486" s="2">
+      <c r="F486" s="41">
         <v>25857029</v>
       </c>
     </row>
@@ -14177,7 +14785,7 @@
       <c r="E487" t="s">
         <v>212</v>
       </c>
-      <c r="F487" s="2">
+      <c r="F487" s="41">
         <v>15520344</v>
       </c>
     </row>
@@ -14197,7 +14805,7 @@
       <c r="E488" t="s">
         <v>1088</v>
       </c>
-      <c r="F488" s="2">
+      <c r="F488" s="41">
         <v>24228480</v>
       </c>
     </row>
@@ -14217,7 +14825,7 @@
       <c r="E489" t="s">
         <v>937</v>
       </c>
-      <c r="F489" s="2">
+      <c r="F489" s="41">
         <v>13702873</v>
       </c>
     </row>
@@ -14237,7 +14845,7 @@
       <c r="E490" t="s">
         <v>219</v>
       </c>
-      <c r="F490" s="2">
+      <c r="F490" s="41">
         <v>6802114</v>
       </c>
     </row>
@@ -14257,7 +14865,7 @@
       <c r="E491" t="s">
         <v>831</v>
       </c>
-      <c r="F491" s="2">
+      <c r="F491" s="41">
         <v>14717257</v>
       </c>
     </row>
@@ -14277,7 +14885,7 @@
       <c r="E492" t="s">
         <v>1095</v>
       </c>
-      <c r="F492" s="2">
+      <c r="F492" s="41">
         <v>20472823</v>
       </c>
     </row>
@@ -14297,7 +14905,7 @@
       <c r="E493" t="s">
         <v>1098</v>
       </c>
-      <c r="F493" s="2">
+      <c r="F493" s="41">
         <v>5729136</v>
       </c>
     </row>
@@ -14317,7 +14925,7 @@
       <c r="E494" t="s">
         <v>292</v>
       </c>
-      <c r="F494" s="2">
+      <c r="F494" s="41">
         <v>19071519</v>
       </c>
     </row>
@@ -14337,7 +14945,7 @@
       <c r="E495" t="s">
         <v>1042</v>
       </c>
-      <c r="F495" s="2">
+      <c r="F495" s="41">
         <v>17583789</v>
       </c>
     </row>
@@ -14357,7 +14965,7 @@
       <c r="E496" t="s">
         <v>147</v>
       </c>
-      <c r="F496" s="2">
+      <c r="F496" s="41">
         <v>29718815</v>
       </c>
     </row>
@@ -14377,7 +14985,7 @@
       <c r="E497" t="s">
         <v>20</v>
       </c>
-      <c r="F497" s="2">
+      <c r="F497" s="41">
         <v>4455203</v>
       </c>
     </row>
@@ -14397,7 +15005,7 @@
       <c r="E498" t="s">
         <v>1106</v>
       </c>
-      <c r="F498" s="2">
+      <c r="F498" s="41">
         <v>25132051</v>
       </c>
     </row>
@@ -14417,7 +15025,7 @@
       <c r="E499" t="s">
         <v>351</v>
       </c>
-      <c r="F499" s="2">
+      <c r="F499" s="41">
         <v>8948737</v>
       </c>
     </row>
@@ -14437,7 +15045,7 @@
       <c r="E500" t="s">
         <v>1109</v>
       </c>
-      <c r="F500" s="2">
+      <c r="F500" s="41">
         <v>9177408</v>
       </c>
     </row>
@@ -14457,7 +15065,7 @@
       <c r="E501" t="s">
         <v>1111</v>
       </c>
-      <c r="F501" s="2">
+      <c r="F501" s="41">
         <v>9080378</v>
       </c>
     </row>
@@ -14477,7 +15085,7 @@
       <c r="E502" t="s">
         <v>1111</v>
       </c>
-      <c r="F502" s="2">
+      <c r="F502" s="41">
         <v>9080379</v>
       </c>
     </row>
@@ -14499,14 +15107,602 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19.7777777777778" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="6.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="23.8888888888889" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B2" s="33" t="str">
+        <f t="shared" ref="B2:B20" si="0">PROPER(A2)</f>
+        <v>Juarez, Jose </v>
+      </c>
+      <c r="C2" s="34">
+        <v>41297</v>
+      </c>
+      <c r="D2" s="33">
+        <v>39000</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F2" s="33" t="str">
+        <f t="shared" ref="F2:F20" si="1">SUBSTITUTE(PROPER(E2),"Mktg","Marketing")</f>
+        <v>Admin</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H2" s="35" t="str">
+        <f t="shared" ref="H2:H20" si="2">PROPER(G2)</f>
+        <v>Intern</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Abraham, Johnny </v>
+      </c>
+      <c r="C3" s="38">
+        <v>41363</v>
+      </c>
+      <c r="D3" s="37">
+        <v>27000</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F3" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Engineering</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H3" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Trainee</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Baker, Sarah</v>
+      </c>
+      <c r="C4" s="34">
+        <v>42124</v>
+      </c>
+      <c r="D4" s="33">
+        <v>36000</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F4" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H4" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Sales Executive</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Balotelli, Billy</v>
+      </c>
+      <c r="C5" s="38">
+        <v>39401</v>
+      </c>
+      <c r="D5" s="37">
+        <v>23900</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F5" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Engineering</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Intern</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Bishop, Tiana </v>
+      </c>
+      <c r="C6" s="34">
+        <v>37959</v>
+      </c>
+      <c r="D6" s="33">
+        <v>46500</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F6" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Engineering</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H6" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Manager</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="36" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Boateng, Terryy</v>
+      </c>
+      <c r="C7" s="38">
+        <v>40021</v>
+      </c>
+      <c r="D7" s="37">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Accounts</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Cost Accountant</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Boer, Fred </v>
+      </c>
+      <c r="C8" s="34">
+        <v>40535</v>
+      </c>
+      <c r="D8" s="33">
+        <v>46000</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F8" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Marketing</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H8" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Designer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="36" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Barker, Betty</v>
+      </c>
+      <c r="C9" s="38">
+        <v>39288</v>
+      </c>
+      <c r="D9" s="37">
+        <v>43500</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F9" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Sales Executive</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Bursteyn , Tom </v>
+      </c>
+      <c r="C10" s="34">
+        <v>36834</v>
+      </c>
+      <c r="D10" s="33">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Sales Trainee</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="36" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Bursteyn, Tammy </v>
+      </c>
+      <c r="C11" s="38">
+        <v>38238</v>
+      </c>
+      <c r="D11" s="37">
+        <v>38000</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F11" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H11" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Sales Executive</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Busser, Bobby</v>
+      </c>
+      <c r="C12" s="34">
+        <v>37417</v>
+      </c>
+      <c r="D12" s="33">
+        <v>29950</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F12" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Accounts</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H12" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Senior Administrator</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="36" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Casciewicz, Kathy</v>
+      </c>
+      <c r="C13" s="38">
+        <v>40892</v>
+      </c>
+      <c r="D13" s="37">
+        <v>41000</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F13" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H13" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Senior Technician</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Cole, Ashley </v>
+      </c>
+      <c r="C14" s="34">
+        <v>40483</v>
+      </c>
+      <c r="D14" s="33">
+        <v>54000</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F14" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H14" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Cost Accountant</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="36" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Cookson, Charles</v>
+      </c>
+      <c r="C15" s="38">
+        <v>41002</v>
+      </c>
+      <c r="D15" s="37">
+        <v>63200</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F15" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>R &amp; D</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H15" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Vp</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Crossley, Erin </v>
+      </c>
+      <c r="C16" s="34">
+        <v>39926</v>
+      </c>
+      <c r="D16" s="33">
+        <v>46000</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F16" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Admin</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H16" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Team Leader</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="36" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Doe, Jane </v>
+      </c>
+      <c r="C17" s="38">
+        <v>42210</v>
+      </c>
+      <c r="D17" s="37">
+        <v>21500</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F17" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>R &amp; D</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H17" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Trainee</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Doe, John  </v>
+      </c>
+      <c r="C18" s="34">
+        <v>41795</v>
+      </c>
+      <c r="D18" s="33">
+        <v>45600</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F18" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Engineering</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H18" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Intern</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Darnstein, Danny</v>
+      </c>
+      <c r="C19" s="38">
+        <v>40891</v>
+      </c>
+      <c r="D19" s="37">
+        <v>52000</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F19" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Engineering</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H19" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Cost Accountant</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Fallengrano, Bill </v>
+      </c>
+      <c r="C20" s="34">
+        <v>37071</v>
+      </c>
+      <c r="D20" s="33">
+        <v>56750</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F20" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Engineering</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H20" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>Senior Administrator</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -14515,14 +15711,969 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="75.5555555555556" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8888888888889" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7777777777778" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8888888888889" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
+    <col min="8" max="9" width="55.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:B20" si="0">FIND(";",A2)</f>
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:C20" si="1">LEN(A2)</f>
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f t="shared" ref="D2:D20" si="2">PROPER(LEFT(A2,B2-1))</f>
+        <v>Juarez, Jose </v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f t="shared" ref="E2:E20" si="3">RIGHT(A2,C2-B2)</f>
+        <v>41297;39000;ADMIN;INTERN</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f t="shared" ref="F2:F20" si="4">PROPER(LEFT(A2,FIND(";",A2)-1))</f>
+        <v>Juarez, Jose </v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I2" s="20" t="str">
+        <f t="shared" ref="I2:I20" si="5">RIGHT(A2,LEN(A2)-FIND(";",A2))</f>
+        <v>41297;39000;ADMIN;INTERN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abraham, Johnny </v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>03/30/2013;27000;ENGINEERING;TRAINEE</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Abraham, Johnny </v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I3" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>03/30/2013;27000;ENGINEERING;TRAINEE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Baker, Sarah</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>04/30/2015;36000;SALES;SALES EXECUTIVE</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Baker, Sarah</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I4" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>04/30/2015;36000;SALES;SALES EXECUTIVE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Balotelli, Billy</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>11/15/2007;23900;ENGINEERING;INTERN</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Balotelli, Billy</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I5" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>11/15/2007;23900;ENGINEERING;INTERN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Bishop, Tiana </v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>37959;46500;ENGINEERING;MANAGER</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Bishop, Tiana </v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>37959;46500;ENGINEERING;MANAGER</v>
+      </c>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Boateng, Terryy</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>07/27/2009;50000;ACCOUNTS;COST ACCOUNTANT</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Boateng, Terryy</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I7" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>07/27/2009;50000;ACCOUNTS;COST ACCOUNTANT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Boer, Fred </v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>12/23/2010;46000;MKTG;DESIGNER</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Boer, Fred </v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I8" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>12/23/2010;46000;MKTG;DESIGNER</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Barker, Betty</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>07/25/2007;43500;SALES;SALES EXECUTIVE</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Barker, Betty</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>07/25/2007;43500;SALES;SALES EXECUTIVE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Bursteyn , Tom </v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>36834;21000;SALES;SALES TRAINEE</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Bursteyn , Tom </v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I10" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>36834;21000;SALES;SALES TRAINEE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Bursteyn, Tammy </v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>38238;38000;SALES;SALES EXECUTIVE</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Bursteyn, Tammy </v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I11" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>38238;38000;SALES;SALES EXECUTIVE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Busser, Bobby</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>37417;29950;ACCOUNTS;SENIOR ADMINISTRATOR</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Busser, Bobby</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I12" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>37417;29950;ACCOUNTS;SENIOR ADMINISTRATOR</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Casciewicz, Kathy</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v> 12/15/2011;41000;SALES;SENIOR TECHNICIAN</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Casciewicz, Kathy</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I13" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v> 12/15/2011;41000;SALES;SENIOR TECHNICIAN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Cole, Ashley </v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>40483;54000;SALES;COST ACCOUNTANT</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Cole, Ashley </v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>40483;54000;SALES;COST ACCOUNTANT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Cookson, Charles</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v> 04/03/2012;63200;R &amp; D;VP</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Cookson, Charles</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I15" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v> 04/03/2012;63200;R &amp; D;VP</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Crossley, Erin </v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>04/23/2009;46000;ADMIN;TEAM LEADER</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Crossley, Erin </v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I16" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v>04/23/2009;46000;ADMIN;TEAM LEADER</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Doe, Jane </v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>07/25/2015;21500;R &amp; D;TRAINEE</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Doe, Jane </v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>07/25/2015;21500;R &amp; D;TRAINEE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Doe, John  </v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v> 06/05/2014;45600;ENGINEERING;INTERN</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Doe, John  </v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I18" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v> 06/05/2014;45600;ENGINEERING;INTERN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Darnstein, Danny</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v> 12/14/2011;52000;ENGINEERING;COST ACCOUNTANT</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>Darnstein, Danny</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I19" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v> 12/14/2011;52000;ENGINEERING;COST ACCOUNTANT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>Fallengrano, Bill </v>
+      </c>
+      <c r="E20" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v> 06/29/2001;56750;ENGINEERING;SENIOR ADMINISTRATOR</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>Fallengrano, Bill </v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I20" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v> 06/29/2001;56750;ENGINEERING;SENIOR ADMINISTRATOR</v>
+      </c>
+    </row>
+    <row r="23" ht="31.2" spans="7:9">
+      <c r="G23" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="7:9">
+      <c r="G24" s="14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="G25" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I25" s="25" t="str">
+        <f>CONCATENATE(G25," ",H25)</f>
+        <v>Juarez Jose</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="G26" s="16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I26" s="26" t="str">
+        <f t="shared" ref="I26:I43" si="6">CONCATENATE(G26," ",H26)</f>
+        <v>Abraham Johnny</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9">
+      <c r="G27" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I27" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Baker Sarah</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="G28" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I28" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Balotelli Billy</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9">
+      <c r="G29" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I29" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Bishop Tiana</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9">
+      <c r="G30" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I30" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Boateng Terryy</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9">
+      <c r="G31" s="17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I31" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Boer Fred</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9">
+      <c r="G32" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I32" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Barker Betty</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I33" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Bursteyn  Tom</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I34" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Bursteyn Tammy</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" s="17" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I35" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Busser Bobby</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9">
+      <c r="G36" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I36" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Casciewicz Kathy</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9">
+      <c r="G37" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I37" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Cole Ashley</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9">
+      <c r="G38" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I38" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Cookson Charles</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9">
+      <c r="G39" s="17" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I39" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Crossley Erin</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9">
+      <c r="G40" s="16" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I40" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Doe Jane</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" s="17" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I41" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Doe John</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9">
+      <c r="G42" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I42" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>Darnstein Danny</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9">
+      <c r="G43" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I43" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>Fallengrano Bill</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G23:I23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
